--- a/gd/副本系统/主线副本规划.xlsx
+++ b/gd/副本系统/主线副本规划.xlsx
@@ -7,16 +7,16 @@
     <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="11880"/>
   </bookViews>
   <sheets>
-    <sheet name="时间规划" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="副本规划" sheetId="1" r:id="rId1"/>
+    <sheet name="玩法讨论（自留）" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="365">
   <si>
     <t>章节</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -214,7 +214,1204 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>备注</t>
+    <t>→</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻找精英怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>躲怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过时间或者遇怪次数控制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>护送</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉进对局</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拾取buff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序杀怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序机关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序走位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>限定路线行走次数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制战斗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关门放狗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地形伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰、毒气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送带</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制移动方向</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时限性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加到上述条件下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝箱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能遇怪、获得东西、搞死自己</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老太太模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集火</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>各种条件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>找钥匙、机关、打怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼空间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼追我</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理或者魔法免疫&amp;反伤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不杀小怪主怪重生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局限时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清buff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qte</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部位破坏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导致技能或者ai变化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位时间内点掉屏幕上的东西</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀小的打大的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽奖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态标识需要明显</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人质形式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不杀主怪，无限招小怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制换怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高伤某个站位，需要换怪操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局外带某些buff后进入对局中使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一摸就炸毛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸毛后摸温顺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性上升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性下降</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>摸摸/扔食物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>封锁照妖镜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>封锁摸摸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>封锁换怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>封锁道具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8章地图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4个玩法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+0条尾巴：照妖镜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+1条尾巴：告知玩家长尾巴（开启家园，种菜（怪，送个蛋（24*7h（7可=1））））</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+2条尾巴：挖坑（卡应龙，要求充钱（直白提升战力）），后面的4条有体系（告知有4个方向），开摸摸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+3条尾巴：第二天中后期（为复用要卡单个怪物星级或第4,5只怪物等级），提到怪物装备（签到：第三天给中期NB装备（紫，待讨论装备分类））</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+4条尾巴：4天；1+5条尾巴：6-7天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7天30级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本26</t>
+  </si>
+  <si>
+    <t>副本27</t>
+  </si>
+  <si>
+    <t>副本28</t>
+  </si>
+  <si>
+    <t>副本29</t>
+  </si>
+  <si>
+    <t>副本30</t>
+  </si>
+  <si>
+    <t>副本31</t>
+  </si>
+  <si>
+    <t>副本32</t>
+  </si>
+  <si>
+    <t>副本33</t>
+  </si>
+  <si>
+    <t>副本34</t>
+  </si>
+  <si>
+    <t>副本35</t>
+  </si>
+  <si>
+    <t>副本36</t>
+  </si>
+  <si>
+    <t>副本37</t>
+  </si>
+  <si>
+    <t>副本38</t>
+  </si>
+  <si>
+    <t>副本39</t>
+  </si>
+  <si>
+    <t>副本40</t>
+  </si>
+  <si>
+    <t>副本41</t>
+  </si>
+  <si>
+    <t>副本42</t>
+  </si>
+  <si>
+    <t>副本43</t>
+  </si>
+  <si>
+    <t>副本44</t>
+  </si>
+  <si>
+    <t>副本45</t>
+  </si>
+  <si>
+    <t>副本46</t>
+  </si>
+  <si>
+    <t>副本47</t>
+  </si>
+  <si>
+    <t>副本48</t>
+  </si>
+  <si>
+    <t>副本49</t>
+  </si>
+  <si>
+    <t>副本50</t>
+  </si>
+  <si>
+    <t>副本51</t>
+  </si>
+  <si>
+    <t>副本52</t>
+  </si>
+  <si>
+    <t>副本53</t>
+  </si>
+  <si>
+    <t>副本54</t>
+  </si>
+  <si>
+    <t>副本55</t>
+  </si>
+  <si>
+    <t>副本56</t>
+  </si>
+  <si>
+    <t>副本57</t>
+  </si>
+  <si>
+    <t>副本58</t>
+  </si>
+  <si>
+    <t>副本59</t>
+  </si>
+  <si>
+    <t>副本60</t>
+  </si>
+  <si>
+    <t>副本61</t>
+  </si>
+  <si>
+    <t>副本62</t>
+  </si>
+  <si>
+    <t>副本63</t>
+  </si>
+  <si>
+    <t>副本64</t>
+  </si>
+  <si>
+    <t>第八章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第七章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第六章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应龙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧情节点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖狼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护祖先</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>勾结道士</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>营救妲己</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>降服伙伴1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>降服伙伴2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>降服伙伴3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>带1个伙伴出战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>带3个伙伴出战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>带2个伙伴出战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>共同战胜犼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金乌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本玩法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻找精英怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>躲怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>护送</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拾取buff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制战斗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝箱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序杀怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序机关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序走位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地形伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进阶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在上述条件中增加时限性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>找到副本中的NPC进行对话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>找到副本中的某个物件并拾取</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>找到副本中的某个怪物并进行战斗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>找到钥匙并开启阻碍的门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>躲过怪物的巡视范围</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>护送人/物至指定地点（途中可能遇到战斗）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在boss或者特殊事件之前给予一个提示性的buff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入某个场景后无法返回，必须战斗通过后才能继续行进</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拾取宝箱后可能遇怪，获得道具，自残</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照一定的顺序消灭副本中的怪（互相之间有增益或者制约关系）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照一定的顺序开启机关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照一定的顺序进入房间中才能通关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>走到特定样式的地形上会受到伤害/治疗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局玩法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集火</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>双生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清buff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qte</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制换怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高伤某个站位，需要换怪操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序杀怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要在单位时间内杀掉2只怪，否则先死的一只会被另一只复活</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解除buff的操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位时间内对屏幕中出现的东西进行操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击某个部位进行集火操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制将已上场的伙伴换下场</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要在单位时间内换上肉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一定时间内无法使用照妖镜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一定时间内无法使用摸摸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一定时间内无法换怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一定时间内无法使用道具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照某种顺序杀怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在上述条件中加入时限性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要在副本中拾取某种状态进入对局才能获胜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部位破坏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>破坏boss的某个部位倒置技能或者AI的效果变化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标选择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当A怪存在时，B怪永生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A怪属性根据B怪数量决定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽奖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多个可选择的目标，需要选择主目标进行攻击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>免伤/反伤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>某个目标具有免物理/魔法伤害或者反伤的效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>摸摸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>摸摸后目标属性下降</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>摸摸后目标属性上升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本玩法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻找精英怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制战斗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个伙伴均达到5级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得第4个伙伴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>换怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4个伙伴均达到10级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>首充可获得第5个伙伴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>降服伙伴4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得第3个伙伴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得第2个伙伴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得第1个伙伴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻找弱点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻人、寻物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拾取buff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>送一个蛋，第二天孵化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天狗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标选择，先杀小怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先剧情，直接进副本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话后直接进</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升到2级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本选择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接打开副本选择界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标选择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启拜将台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导点击拜将台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募英雄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续选择副本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄上阵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升到3级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>步骤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿戴道具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续副本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续副本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能使用时机介绍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导打开角色界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿装备后进阶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招打断教程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升到4级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化打断教程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>元神招募</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赠送vip1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导升级资源建筑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导收获资源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升到5级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启任务系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导完成任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升到6级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导领取章节通关奖励</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵型调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续副本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启书院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导打开角色技能界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启群英会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导进行群英会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>群英会失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿戴装备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>告知完成任务可以迅速升级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导打开角色升星界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导打开角色列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导打开角色装备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导打开角色进阶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色升星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升到8级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升到9级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启奇遇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术免疫教学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导进行奇遇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升到10级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标选择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本选择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募伙伴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能使用时机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伙伴升星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孵蛋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵型调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术免疫教学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本选择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开摸摸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战败后花钱提升属性（方式待定）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上阵阵容调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能升级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开道具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术免疫教学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理免疫教学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序杀怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部位破坏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一章内容需要与孔老师商定，确定初始小怪的来路</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二师兄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局玩法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启家园</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启日常任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启狩猎场</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启通天塔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启签到</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启困难副本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启竞技场</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启擂台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>降临boss</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界boss</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossrush</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地藏宫殿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大冒险</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会副本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>满5伙伴且1个伙伴达到3星</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -222,7 +1419,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,16 +1465,56 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -285,13 +1522,160 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -301,22 +1685,193 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -325,6 +1880,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -620,30 +2180,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R31"/>
+  <dimension ref="B1:AK70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="9.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.25" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="9.25" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="10" width="11.25" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="13" width="9" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="32" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5" style="1" customWidth="1"/>
+    <col min="20" max="20" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:37" x14ac:dyDescent="0.15">
       <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:37" x14ac:dyDescent="0.15">
       <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
@@ -661,7 +2229,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:37" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
         <v>43</v>
       </c>
@@ -678,7 +2246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:37" x14ac:dyDescent="0.15">
       <c r="C4" s="1" t="s">
         <v>29</v>
       </c>
@@ -690,1057 +2258,2638 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="O5" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="2:18" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="2:37" s="2" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="O6" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="P6" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="Q6" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="R6" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B7" s="7" t="s">
+      <c r="R6" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="S6" s="65" t="s">
+        <v>245</v>
+      </c>
+      <c r="T6" s="58" t="s">
+        <v>346</v>
+      </c>
+      <c r="U6" s="62" t="s">
+        <v>347</v>
+      </c>
+      <c r="V6" s="63" t="s">
+        <v>344</v>
+      </c>
+      <c r="W6" s="63"/>
+      <c r="X6" s="63"/>
+      <c r="Y6" s="63"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+    </row>
+    <row r="7" spans="2:37" x14ac:dyDescent="0.15">
+      <c r="B7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="12">
         <v>1</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="13">
         <v>5</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="12">
         <f t="shared" ref="F7:F31" si="0">E7*$K$2</f>
         <v>0.5</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="13">
         <v>1</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="12">
         <f t="shared" ref="H7:H31" si="1">G7*$E$4</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="13">
         <v>3</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="13">
         <v>1</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="12">
         <f t="shared" ref="K7:K31" si="2">I7*$E$3</f>
         <v>0.75</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="12">
         <f>K7+H7+F7+$K$3*J7</f>
         <v>3.85</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="12">
         <f>L7</f>
         <v>3.85</v>
       </c>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7" t="s">
+      <c r="N7" s="40"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="S7" s="12"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="50"/>
+      <c r="AA7" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="2:37" x14ac:dyDescent="0.15">
+      <c r="B8" s="15"/>
+      <c r="C8" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8">
+      <c r="D8" s="5"/>
+      <c r="E8" s="6">
         <v>5</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="5">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="6">
         <v>2</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="5">
         <f t="shared" si="1"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="6">
         <v>4</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="6">
         <v>1</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="5">
         <f t="shared" ref="L8:L31" si="3">K8+H8+F8+$K$3*J8</f>
         <v>4.7</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="5">
         <f>M7+L8</f>
         <v>8.5500000000000007</v>
       </c>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7" t="s">
+      <c r="N8" s="35"/>
+      <c r="O8" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P8" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="S8" s="5"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="51"/>
+      <c r="AA8" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="2:37" x14ac:dyDescent="0.15">
+      <c r="B9" s="15"/>
+      <c r="C9" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8">
+      <c r="D9" s="5"/>
+      <c r="E9" s="6">
         <v>5</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="5">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="6">
         <v>1</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="5">
         <f t="shared" si="1"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="6">
         <v>3</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="6">
         <v>1</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="5">
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="5">
         <f t="shared" si="3"/>
         <v>3.85</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="5">
         <f t="shared" ref="M9:M31" si="4">M8+L9</f>
         <v>12.4</v>
       </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7" t="s">
+      <c r="N9" s="35"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="S9" s="7"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="51"/>
+      <c r="AA9" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="2:37" x14ac:dyDescent="0.15">
+      <c r="B10" s="15"/>
+      <c r="C10" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8">
+      <c r="D10" s="5"/>
+      <c r="E10" s="6">
         <v>5</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="5">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="6">
         <v>1</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="5">
         <f t="shared" si="1"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="6">
         <v>3</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="6">
         <v>1</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="5">
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="5">
         <f t="shared" si="3"/>
         <v>3.85</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="5">
         <f t="shared" si="4"/>
         <v>16.25</v>
       </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7" t="s">
+      <c r="N10" s="35"/>
+      <c r="O10" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="S10" s="5"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="51"/>
+      <c r="AD10" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="2:37" x14ac:dyDescent="0.15">
+      <c r="B11" s="15"/>
+      <c r="C11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8">
+      <c r="D11" s="5"/>
+      <c r="E11" s="6">
         <v>5</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="5">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="6">
         <v>2</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="5">
         <f t="shared" si="1"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="6">
         <v>3</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="6">
         <v>1</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="5">
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="5">
         <f t="shared" si="3"/>
         <v>4.45</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="5">
         <f t="shared" si="4"/>
         <v>20.7</v>
       </c>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="N11" s="35"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="34" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="S11" s="7"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="51"/>
+      <c r="AA11" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+    </row>
+    <row r="12" spans="2:37" x14ac:dyDescent="0.15">
+      <c r="B12" s="16"/>
+      <c r="C12" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="5">
         <v>6</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="6">
         <v>5</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="5">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="6">
         <v>1</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="5">
         <f t="shared" si="1"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="6">
         <v>3</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="6">
         <v>1</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="5">
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="5">
         <f t="shared" si="3"/>
         <v>3.85</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="5">
         <f t="shared" si="4"/>
         <v>24.55</v>
       </c>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7" t="s">
+      <c r="N12" s="35"/>
+      <c r="O12" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="S12" s="5"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="51"/>
+      <c r="AA12" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+    </row>
+    <row r="13" spans="2:37" x14ac:dyDescent="0.15">
+      <c r="B13" s="16"/>
+      <c r="C13" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8">
+      <c r="D13" s="5"/>
+      <c r="E13" s="6">
         <v>5</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="5">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="6">
         <v>2</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="5">
         <f t="shared" si="1"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="6">
         <v>3</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="6">
         <v>1</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="5">
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="5">
         <f t="shared" si="3"/>
         <v>4.45</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="5">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7" t="s">
+      <c r="N13" s="35"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="S13" s="7"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="51"/>
+      <c r="AA13" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+    </row>
+    <row r="14" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="17"/>
+      <c r="C14" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8">
+      <c r="D14" s="18"/>
+      <c r="E14" s="19">
         <v>5</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="18">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="19">
         <v>1</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="18">
         <f t="shared" si="1"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="19">
         <v>4</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="19">
         <v>1</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="18">
         <f t="shared" si="3"/>
         <v>4.0999999999999996</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="18">
         <f t="shared" si="4"/>
         <v>33.1</v>
       </c>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7" t="s">
+      <c r="N14" s="36"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q14" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="R14" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="S14" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="T14" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="U14" s="52"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+    </row>
+    <row r="15" spans="2:37" x14ac:dyDescent="0.15">
+      <c r="B15" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8">
+      <c r="D15" s="8"/>
+      <c r="E15" s="9">
         <v>5</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="8">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="9">
         <v>1</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="8">
         <f t="shared" si="1"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="9">
         <v>3</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="9">
         <v>1</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="8">
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="8">
         <f t="shared" si="3"/>
         <v>3.85</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="8">
         <f t="shared" si="4"/>
         <v>36.950000000000003</v>
       </c>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7" t="s">
+      <c r="N15" s="38"/>
+      <c r="O15" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="S15" s="8"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="55"/>
+      <c r="AA15" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="2:37" x14ac:dyDescent="0.15">
+      <c r="B16" s="25"/>
+      <c r="C16" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8">
+      <c r="D16" s="8"/>
+      <c r="E16" s="9">
         <v>5</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="8">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="9">
         <v>2</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="8">
         <f t="shared" si="1"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="9">
         <v>3</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="9">
         <v>1</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="8">
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="8">
         <f t="shared" si="3"/>
         <v>4.45</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="8">
         <f t="shared" si="4"/>
         <v>41.400000000000006</v>
       </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="7" t="s">
+      <c r="N16" s="38"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="43" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="43"/>
+      <c r="U16" s="55"/>
+      <c r="AB16" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="2:37" x14ac:dyDescent="0.15">
+      <c r="B17" s="25"/>
+      <c r="C17" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="7">
-        <v>11</v>
-      </c>
-      <c r="E17" s="8">
+      <c r="D17" s="10"/>
+      <c r="E17" s="9">
         <v>5</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="8">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="9">
         <v>1</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="8">
         <f t="shared" si="1"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="9">
         <v>3</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="9">
         <v>1</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="8">
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="8">
         <f t="shared" si="3"/>
         <v>3.85</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="8">
         <f t="shared" si="4"/>
         <v>45.250000000000007</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7" t="s">
+      <c r="N17" s="38"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="55" t="s">
+        <v>352</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="2:37" x14ac:dyDescent="0.15">
+      <c r="B18" s="25"/>
+      <c r="C18" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8">
+      <c r="D18" s="8"/>
+      <c r="E18" s="9">
         <v>5</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="8">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="9">
         <v>2</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="8">
         <f t="shared" si="1"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="9">
         <v>3</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="9">
         <v>1</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="8">
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="8">
         <f t="shared" si="3"/>
         <v>4.45</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="8">
         <f t="shared" si="4"/>
         <v>49.70000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7" t="s">
+      <c r="N18" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="O18" s="10"/>
+      <c r="P18" s="43" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="R18" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="S18" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="T18" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="U18" s="55"/>
+      <c r="AC18" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AK18" s="4"/>
+    </row>
+    <row r="19" spans="2:37" x14ac:dyDescent="0.15">
+      <c r="B19" s="25"/>
+      <c r="C19" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="8">
+      <c r="D19" s="8"/>
+      <c r="E19" s="9">
         <v>5</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="8">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="9">
         <v>1</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="8">
         <f t="shared" si="1"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="9">
         <v>4</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="9">
         <v>1</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="8">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="8">
         <f t="shared" si="3"/>
         <v>4.0999999999999996</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="8">
         <f t="shared" si="4"/>
         <v>53.800000000000011</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7" t="s">
+      <c r="N19" s="38"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="55"/>
+      <c r="AC19" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD19" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AK19" s="4"/>
+    </row>
+    <row r="20" spans="2:37" x14ac:dyDescent="0.15">
+      <c r="B20" s="26"/>
+      <c r="C20" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8">
+      <c r="D20" s="8"/>
+      <c r="E20" s="9">
         <v>5</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="8">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="9">
         <v>1</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="8">
         <f t="shared" si="1"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="9">
         <v>3</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="9">
         <v>1</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="8">
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="8">
         <f t="shared" si="3"/>
         <v>3.85</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="8">
         <f t="shared" si="4"/>
         <v>57.650000000000013</v>
       </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7" t="s">
+      <c r="N20" s="38"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="43" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="55"/>
+      <c r="AB20" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD20" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AK20" s="4"/>
+    </row>
+    <row r="21" spans="2:37" x14ac:dyDescent="0.15">
+      <c r="B21" s="25"/>
+      <c r="C21" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8">
+      <c r="D21" s="8"/>
+      <c r="E21" s="9">
         <v>5</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="8">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="9">
         <v>2</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="8">
         <f t="shared" si="1"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="9">
         <v>3</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="9">
         <v>1</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="8">
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="8">
         <f t="shared" si="3"/>
         <v>4.45</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="8">
         <f t="shared" si="4"/>
         <v>62.100000000000016</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B22" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="7" t="s">
+      <c r="N21" s="38"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="55"/>
+      <c r="AC21" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD21" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AK21" s="4"/>
+    </row>
+    <row r="22" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="27"/>
+      <c r="C22" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="7">
-        <v>16</v>
-      </c>
-      <c r="E22" s="8">
+      <c r="D22" s="29"/>
+      <c r="E22" s="30">
         <v>5</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="28">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="30">
         <v>1</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="28">
         <f t="shared" si="1"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="30">
         <v>3</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="30">
         <v>1</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="28">
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="28">
         <f t="shared" si="3"/>
         <v>3.85</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="28">
         <f t="shared" si="4"/>
         <v>65.950000000000017</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7" t="s">
+      <c r="N22" s="39"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="44" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="S22" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="T22" s="44"/>
+      <c r="U22" s="56"/>
+      <c r="AC22" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD22" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="2:37" x14ac:dyDescent="0.15">
+      <c r="B23" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8">
+      <c r="D23" s="12">
+        <v>11</v>
+      </c>
+      <c r="E23" s="13">
         <v>5</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="12">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="13">
         <v>2</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="12">
         <f t="shared" si="1"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="13">
         <v>3</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="13">
         <v>1</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="12">
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="12">
         <f t="shared" si="3"/>
         <v>4.45</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M23" s="12">
         <f t="shared" si="4"/>
         <v>70.40000000000002</v>
       </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7" t="s">
+      <c r="N23" s="40"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="45" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="50" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC23" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD23" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="2:37" x14ac:dyDescent="0.15">
+      <c r="B24" s="15"/>
+      <c r="C24" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8">
+      <c r="D24" s="5"/>
+      <c r="E24" s="6">
         <v>5</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="5">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="6">
         <v>1</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="5">
         <f t="shared" si="1"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="6">
         <v>3</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="6">
         <v>1</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="5">
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="5">
         <f t="shared" si="3"/>
         <v>3.85</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M24" s="5">
         <f t="shared" si="4"/>
         <v>74.250000000000014</v>
       </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7" t="s">
+      <c r="N24" s="35"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="51"/>
+      <c r="AC24" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD24" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="2:37" x14ac:dyDescent="0.15">
+      <c r="B25" s="16"/>
+      <c r="C25" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="8">
+      <c r="D25" s="5"/>
+      <c r="E25" s="6">
         <v>5</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="5">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="6">
         <v>1</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="5">
         <f t="shared" si="1"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="6">
         <v>4</v>
       </c>
-      <c r="J25" s="8">
+      <c r="J25" s="6">
         <v>1</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L25" s="5">
         <f t="shared" si="3"/>
         <v>4.0999999999999996</v>
       </c>
-      <c r="M25" s="7">
+      <c r="M25" s="5">
         <f t="shared" si="4"/>
         <v>78.350000000000009</v>
       </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7" t="s">
+      <c r="N25" s="35"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="51"/>
+      <c r="AB25" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC25" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD25" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" spans="2:37" x14ac:dyDescent="0.15">
+      <c r="B26" s="15"/>
+      <c r="C26" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="8">
+      <c r="D26" s="5"/>
+      <c r="E26" s="6">
         <v>5</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="5">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="6">
         <v>2</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="5">
         <f t="shared" si="1"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="6">
         <v>3</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J26" s="6">
         <v>1</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="5">
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="5">
         <f t="shared" si="3"/>
         <v>4.45</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M26" s="5">
         <f t="shared" si="4"/>
         <v>82.800000000000011</v>
       </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B27" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="7" t="s">
+      <c r="N26" s="35"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="S26" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="T26" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="U26" s="51"/>
+      <c r="AC26" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD26" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="2:37" x14ac:dyDescent="0.15">
+      <c r="B27" s="15"/>
+      <c r="C27" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="7">
-        <v>21</v>
-      </c>
-      <c r="E27" s="8">
+      <c r="D27" s="5"/>
+      <c r="E27" s="6">
         <v>5</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="5">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="6">
         <v>2</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="5">
         <f t="shared" si="1"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="6">
         <v>3</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J27" s="6">
         <v>1</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27" s="5">
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L27" s="5">
         <f t="shared" si="3"/>
         <v>4.45</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M27" s="5">
         <f t="shared" si="4"/>
         <v>87.250000000000014</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B28" s="7"/>
-      <c r="C28" s="7" t="s">
+      <c r="N27" s="35"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="51"/>
+      <c r="AC27" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD27" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28" spans="2:37" x14ac:dyDescent="0.15">
+      <c r="B28" s="15"/>
+      <c r="C28" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="8">
+      <c r="D28" s="5"/>
+      <c r="E28" s="6">
         <v>5</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="5">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="6">
         <v>2</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="5">
         <f t="shared" si="1"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I28" s="6">
         <v>3</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J28" s="6">
         <v>1</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K28" s="5">
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-      <c r="L28" s="7">
+      <c r="L28" s="5">
         <f t="shared" si="3"/>
         <v>4.45</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M28" s="5">
         <f t="shared" si="4"/>
         <v>91.700000000000017</v>
       </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7" t="s">
+      <c r="N28" s="35"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="34"/>
+      <c r="U28" s="51"/>
+      <c r="AC28" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD28" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="2:37" x14ac:dyDescent="0.15">
+      <c r="B29" s="15"/>
+      <c r="C29" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="8">
+      <c r="D29" s="5"/>
+      <c r="E29" s="6">
         <v>5</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="5">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="6">
         <v>2</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="5">
         <f t="shared" si="1"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I29" s="6">
         <v>3</v>
       </c>
-      <c r="J29" s="8">
+      <c r="J29" s="6">
         <v>1</v>
       </c>
-      <c r="K29" s="7">
+      <c r="K29" s="5">
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-      <c r="L29" s="7">
+      <c r="L29" s="5">
         <f t="shared" si="3"/>
         <v>4.45</v>
       </c>
-      <c r="M29" s="7">
+      <c r="M29" s="5">
         <f t="shared" si="4"/>
         <v>96.15000000000002</v>
       </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B30" s="7"/>
-      <c r="C30" s="7" t="s">
+      <c r="N29" s="35"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="34" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="34"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="34"/>
+      <c r="U29" s="51"/>
+      <c r="AC29" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="17"/>
+      <c r="C30" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="8">
+      <c r="D30" s="18"/>
+      <c r="E30" s="19">
         <v>5</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="18">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="19">
         <v>2</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="18">
         <f t="shared" si="1"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I30" s="19">
         <v>3</v>
       </c>
-      <c r="J30" s="8">
+      <c r="J30" s="19">
         <v>1</v>
       </c>
-      <c r="K30" s="7">
+      <c r="K30" s="18">
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-      <c r="L30" s="7">
+      <c r="L30" s="18">
         <f t="shared" si="3"/>
         <v>4.45</v>
       </c>
-      <c r="M30" s="7">
+      <c r="M30" s="18">
         <f t="shared" si="4"/>
         <v>100.60000000000002</v>
       </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B31" s="7"/>
-      <c r="C31" s="7" t="s">
+      <c r="N30" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="O30" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="S30" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="T30" s="41" t="s">
+        <v>343</v>
+      </c>
+      <c r="U30" s="53"/>
+      <c r="AB30" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC30" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31" spans="2:37" x14ac:dyDescent="0.15">
+      <c r="B31" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="8">
+      <c r="D31" s="22">
+        <v>16</v>
+      </c>
+      <c r="E31" s="23">
         <v>5</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="22">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="23">
         <v>2</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="22">
         <f t="shared" si="1"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I31" s="23">
         <v>3</v>
       </c>
-      <c r="J31" s="8">
+      <c r="J31" s="23">
         <v>1</v>
       </c>
-      <c r="K31" s="7">
+      <c r="K31" s="22">
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-      <c r="L31" s="7">
+      <c r="L31" s="22">
         <f t="shared" si="3"/>
         <v>4.45</v>
       </c>
-      <c r="M31" s="7">
+      <c r="M31" s="22">
         <f t="shared" si="4"/>
         <v>105.05000000000003</v>
+      </c>
+      <c r="N31" s="37"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="42" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="42"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="42"/>
+      <c r="U31" s="54" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="32" spans="2:37" x14ac:dyDescent="0.15">
+      <c r="B32" s="26"/>
+      <c r="C32" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="43"/>
+      <c r="U32" s="55"/>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B33" s="26"/>
+      <c r="C33" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="43"/>
+      <c r="U33" s="55"/>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B34" s="26"/>
+      <c r="C34" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="43"/>
+      <c r="S34" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="T34" s="43"/>
+      <c r="U34" s="55"/>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B35" s="26"/>
+      <c r="C35" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="43"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="43"/>
+      <c r="U35" s="55"/>
+    </row>
+    <row r="36" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B36" s="26"/>
+      <c r="C36" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="43"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="43"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="43"/>
+      <c r="U36" s="55"/>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B37" s="26"/>
+      <c r="C37" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="38"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="43"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="43"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="43"/>
+      <c r="U37" s="55"/>
+      <c r="AA37" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="38" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="31"/>
+      <c r="C38" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="39"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="44"/>
+      <c r="Q38" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="R38" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="S38" s="28"/>
+      <c r="T38" s="44"/>
+      <c r="U38" s="56" t="s">
+        <v>353</v>
+      </c>
+      <c r="AB38" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC38" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD38" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="39" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B39" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C39" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" s="12">
+        <v>21</v>
+      </c>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="45"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="45"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="45"/>
+      <c r="U39" s="50" t="s">
+        <v>354</v>
+      </c>
+      <c r="AC39" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AD39" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B40" s="16"/>
+      <c r="C40" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="35"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="34"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="34"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="34"/>
+      <c r="U40" s="51"/>
+      <c r="AC40" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD40" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B41" s="16"/>
+      <c r="C41" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="35"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="34"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="34"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="34"/>
+      <c r="U41" s="51"/>
+      <c r="AC41" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AD41" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B42" s="16"/>
+      <c r="C42" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="35"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="34" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="34"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="34"/>
+      <c r="U42" s="51"/>
+      <c r="AC42" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AD42" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B43" s="16"/>
+      <c r="C43" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="35"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="34"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="34"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="34"/>
+      <c r="U43" s="51"/>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B44" s="16"/>
+      <c r="C44" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="35"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="34"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="34"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="34"/>
+      <c r="U44" s="51"/>
+      <c r="AB44" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC44" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD44" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B45" s="16"/>
+      <c r="C45" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="35"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="34"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="34"/>
+      <c r="U45" s="51"/>
+      <c r="AC45" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD45" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="17"/>
+      <c r="C46" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="36"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="41"/>
+      <c r="Q46" s="20"/>
+      <c r="R46" s="46" t="s">
+        <v>261</v>
+      </c>
+      <c r="S46" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="T46" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="U46" s="53" t="s">
+        <v>350</v>
+      </c>
+      <c r="AC46" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD46" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B47" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="C47" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="D47" s="22">
+        <v>26</v>
+      </c>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="37"/>
+      <c r="O47" s="24"/>
+      <c r="P47" s="42"/>
+      <c r="Q47" s="24"/>
+      <c r="R47" s="42"/>
+      <c r="S47" s="22"/>
+      <c r="T47" s="42"/>
+      <c r="U47" s="54" t="s">
+        <v>355</v>
+      </c>
+      <c r="AC47" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AD47" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B48" s="26"/>
+      <c r="C48" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="38"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="43"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="43"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="43"/>
+      <c r="U48" s="55"/>
+      <c r="AC48" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AD48" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="49" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B49" s="26"/>
+      <c r="C49" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="38"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="43"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="43"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="43"/>
+      <c r="U49" s="55"/>
+      <c r="AC49" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD49" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="50" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B50" s="26"/>
+      <c r="C50" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="38"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="43"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="43"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="43"/>
+      <c r="U50" s="55"/>
+      <c r="AC50" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AD50" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="51" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B51" s="26"/>
+      <c r="C51" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="38"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="43"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="43"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="43"/>
+      <c r="U51" s="55"/>
+      <c r="AC51" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AD51" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="52" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B52" s="26"/>
+      <c r="C52" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="38"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="43"/>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="43"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="43"/>
+      <c r="U52" s="55"/>
+      <c r="AD52" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="53" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B53" s="26"/>
+      <c r="C53" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="38"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="43"/>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="43"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="43"/>
+      <c r="U53" s="55"/>
+    </row>
+    <row r="54" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="31"/>
+      <c r="C54" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="D54" s="28"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="29"/>
+      <c r="N54" s="39"/>
+      <c r="O54" s="29"/>
+      <c r="P54" s="44"/>
+      <c r="Q54" s="29"/>
+      <c r="R54" s="64" t="s">
+        <v>345</v>
+      </c>
+      <c r="S54" s="28"/>
+      <c r="T54" s="44"/>
+      <c r="U54" s="56"/>
+      <c r="AB54" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC54" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD54" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="55" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B55" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C55" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="D55" s="12">
+        <v>30</v>
+      </c>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="40"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="45"/>
+      <c r="Q55" s="14"/>
+      <c r="R55" s="45"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="45"/>
+      <c r="U55" s="50" t="s">
+        <v>351</v>
+      </c>
+      <c r="AC55" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD55" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="56" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B56" s="16"/>
+      <c r="C56" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="D56" s="5"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="35"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="34"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="34"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="34"/>
+      <c r="U56" s="51"/>
+      <c r="AC56" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AD56" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="57" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B57" s="16"/>
+      <c r="C57" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="D57" s="5"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="35"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="34"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="34"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="34"/>
+      <c r="U57" s="51"/>
+      <c r="AD57" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="58" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B58" s="16"/>
+      <c r="C58" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="D58" s="5"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="35"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="34"/>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="34"/>
+      <c r="S58" s="5"/>
+      <c r="T58" s="34"/>
+      <c r="U58" s="51"/>
+    </row>
+    <row r="59" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B59" s="16"/>
+      <c r="C59" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="D59" s="5"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="35"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="34"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="34"/>
+      <c r="S59" s="5"/>
+      <c r="T59" s="34"/>
+      <c r="U59" s="51"/>
+      <c r="AB59" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC59" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="60" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B60" s="16"/>
+      <c r="C60" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="35"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="34"/>
+      <c r="Q60" s="7"/>
+      <c r="R60" s="34"/>
+      <c r="S60" s="5"/>
+      <c r="T60" s="34"/>
+      <c r="U60" s="51"/>
+      <c r="AC60" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="61" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B61" s="16"/>
+      <c r="C61" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="35"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="34"/>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="34"/>
+      <c r="S61" s="5"/>
+      <c r="T61" s="34"/>
+      <c r="U61" s="51"/>
+    </row>
+    <row r="62" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="17"/>
+      <c r="C62" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="20"/>
+      <c r="L62" s="20"/>
+      <c r="M62" s="20"/>
+      <c r="N62" s="36"/>
+      <c r="O62" s="20"/>
+      <c r="P62" s="41"/>
+      <c r="Q62" s="20"/>
+      <c r="R62" s="41"/>
+      <c r="S62" s="18"/>
+      <c r="T62" s="41"/>
+      <c r="U62" s="53"/>
+    </row>
+    <row r="63" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B63" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="C63" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="24"/>
+      <c r="K63" s="24"/>
+      <c r="L63" s="24"/>
+      <c r="M63" s="24"/>
+      <c r="N63" s="37"/>
+      <c r="O63" s="24"/>
+      <c r="P63" s="42"/>
+      <c r="Q63" s="24"/>
+      <c r="R63" s="42"/>
+      <c r="S63" s="22"/>
+      <c r="T63" s="42"/>
+      <c r="U63" s="54" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="64" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B64" s="26"/>
+      <c r="C64" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="38"/>
+      <c r="O64" s="10"/>
+      <c r="P64" s="43"/>
+      <c r="Q64" s="10"/>
+      <c r="R64" s="43"/>
+      <c r="S64" s="8"/>
+      <c r="T64" s="43"/>
+      <c r="U64" s="55" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B65" s="26"/>
+      <c r="C65" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="38"/>
+      <c r="O65" s="10"/>
+      <c r="P65" s="43"/>
+      <c r="Q65" s="10"/>
+      <c r="R65" s="43"/>
+      <c r="S65" s="8"/>
+      <c r="T65" s="43"/>
+      <c r="U65" s="55" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B66" s="26"/>
+      <c r="C66" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="38"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="43"/>
+      <c r="Q66" s="10"/>
+      <c r="R66" s="43"/>
+      <c r="S66" s="8"/>
+      <c r="T66" s="43"/>
+      <c r="U66" s="55" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B67" s="26"/>
+      <c r="C67" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="38"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="43"/>
+      <c r="Q67" s="10"/>
+      <c r="R67" s="43"/>
+      <c r="S67" s="8"/>
+      <c r="T67" s="43"/>
+      <c r="U67" s="55" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B68" s="26"/>
+      <c r="C68" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="38"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="43"/>
+      <c r="Q68" s="10"/>
+      <c r="R68" s="43"/>
+      <c r="S68" s="8"/>
+      <c r="T68" s="43"/>
+      <c r="U68" s="55" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B69" s="26"/>
+      <c r="C69" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="38"/>
+      <c r="O69" s="10"/>
+      <c r="P69" s="43"/>
+      <c r="Q69" s="10"/>
+      <c r="R69" s="43"/>
+      <c r="S69" s="8"/>
+      <c r="T69" s="43"/>
+      <c r="U69" s="55" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="31"/>
+      <c r="C70" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="29"/>
+      <c r="K70" s="29"/>
+      <c r="L70" s="29"/>
+      <c r="M70" s="29"/>
+      <c r="N70" s="39"/>
+      <c r="O70" s="29"/>
+      <c r="P70" s="44"/>
+      <c r="Q70" s="29"/>
+      <c r="R70" s="44"/>
+      <c r="S70" s="28"/>
+      <c r="T70" s="44"/>
+      <c r="U70" s="56" t="s">
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -1756,26 +4905,827 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:Q36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B2" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B4" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B6" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B8" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="O9" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B10" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B12" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B14" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B22" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="O31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="M33" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="M35" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="M36" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:P54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="3" width="9" style="3"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="G2" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B4" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="O7" s="1">
+        <v>2</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B9" s="3">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="O9" s="1">
+        <v>3</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B10" s="3">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B11" s="3">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="O11" s="1">
+        <v>4</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B12" s="3">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B13" s="3">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="O13" s="1">
+        <v>7</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B14" s="3">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B15" s="3">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O15" s="1">
+        <v>9</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B16" s="3">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B17" s="3">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="O17" s="1">
+        <v>12</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B18" s="3">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B19" s="3">
+        <v>15</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="O19" s="1">
+        <v>25</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B20" s="3">
+        <v>16</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B21" s="3">
+        <v>17</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="O21" s="1">
+        <v>28</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B22" s="3">
+        <v>18</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B23" s="3">
+        <v>19</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="O23" s="1">
+        <v>39</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B24" s="3">
+        <v>20</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B25" s="3">
+        <v>21</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B26" s="3">
+        <v>22</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B27" s="3">
+        <v>23</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B28" s="3">
+        <v>24</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B29" s="3">
+        <v>25</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B30" s="3">
+        <v>26</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B31" s="3">
+        <v>27</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B32" s="3">
+        <v>28</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B33" s="3">
+        <v>29</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B34" s="3">
+        <v>30</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B35" s="3">
+        <v>31</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B36" s="3">
+        <v>32</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B37" s="3">
+        <v>33</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B38" s="3">
+        <v>34</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B39" s="3">
+        <v>35</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B40" s="3">
+        <v>36</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B41" s="3">
+        <v>37</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B42" s="3">
+        <v>38</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B43" s="3">
+        <v>39</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B44" s="3">
+        <v>40</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B45" s="3">
+        <v>41</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B46" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B47" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B48" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B49" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B50" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B51" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B52" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B53" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B54" s="3">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/gd/副本系统/主线副本规划.xlsx
+++ b/gd/副本系统/主线副本规划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="373">
   <si>
     <t>章节</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -611,15 +611,795 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>剧情节点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>营救妲己</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>降服伙伴1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>降服伙伴2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>降服伙伴3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>带1个伙伴出战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>带3个伙伴出战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>带2个伙伴出战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>共同战胜犼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本玩法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻找精英怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>躲怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>护送</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拾取buff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制战斗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝箱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序杀怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序机关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序走位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地形伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进阶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在上述条件中增加时限性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>找到副本中的NPC进行对话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>找到副本中的某个物件并拾取</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>找到副本中的某个怪物并进行战斗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>找到钥匙并开启阻碍的门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>躲过怪物的巡视范围</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>护送人/物至指定地点（途中可能遇到战斗）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在boss或者特殊事件之前给予一个提示性的buff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入某个场景后无法返回，必须战斗通过后才能继续行进</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拾取宝箱后可能遇怪，获得道具，自残</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照一定的顺序消灭副本中的怪（互相之间有增益或者制约关系）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照一定的顺序开启机关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照一定的顺序进入房间中才能通关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>走到特定样式的地形上会受到伤害/治疗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局玩法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集火</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>双生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清buff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qte</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制换怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高伤某个站位，需要换怪操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序杀怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要在单位时间内杀掉2只怪，否则先死的一只会被另一只复活</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解除buff的操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位时间内对屏幕中出现的东西进行操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击某个部位进行集火操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制将已上场的伙伴换下场</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要在单位时间内换上肉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一定时间内无法使用照妖镜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一定时间内无法使用摸摸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一定时间内无法换怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一定时间内无法使用道具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照某种顺序杀怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在上述条件中加入时限性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要在副本中拾取某种状态进入对局才能获胜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部位破坏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>破坏boss的某个部位倒置技能或者AI的效果变化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标选择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当A怪存在时，B怪永生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A怪属性根据B怪数量决定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽奖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多个可选择的目标，需要选择主目标进行攻击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>免伤/反伤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>某个目标具有免物理/魔法伤害或者反伤的效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>摸摸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>摸摸后目标属性下降</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>摸摸后目标属性上升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本玩法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻找精英怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制战斗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个伙伴均达到5级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得第4个伙伴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>换怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4个伙伴均达到10级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>首充可获得第5个伙伴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>降服伙伴4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得第3个伙伴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得第2个伙伴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得第1个伙伴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻找弱点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻人、寻物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拾取buff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>送一个蛋，第二天孵化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标选择，先杀小怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先剧情，直接进副本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话后直接进</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升到2级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本选择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接打开副本选择界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标选择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启拜将台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导点击拜将台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募英雄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续选择副本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄上阵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升到3级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>步骤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿戴道具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续副本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续副本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能使用时机介绍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导打开角色界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿装备后进阶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招打断教程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升到4级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化打断教程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>元神招募</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赠送vip1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导升级资源建筑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导收获资源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升到5级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启任务系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导完成任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升到6级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导领取章节通关奖励</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵型调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续副本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启书院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导打开角色技能界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启群英会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导进行群英会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>群英会失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿戴装备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>告知完成任务可以迅速升级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导打开角色升星界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导打开角色列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导打开角色装备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导打开角色进阶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色升星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升到8级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升到9级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启奇遇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术免疫教学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导进行奇遇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升到10级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标选择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本选择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募伙伴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能使用时机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伙伴升星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孵蛋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵型调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术免疫教学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本选择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开摸摸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战败后花钱提升属性（方式待定）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上阵阵容调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能升级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开道具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术免疫教学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理免疫教学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序杀怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部位破坏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一章内容需要与孔老师商定，确定初始小怪的来路</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二师兄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局玩法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启家园</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>降临boss</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界boss</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossrush</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地藏宫殿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大冒险</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会副本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二个尾巴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三个尾巴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四个尾巴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五个尾巴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第六个尾巴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金乌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天狗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>空缺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖狼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>应龙</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>剧情节点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>妖狼</t>
+    <t>勾结道士</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -627,727 +1407,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>勾结道士</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>营救妲己</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>降服伙伴1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>降服伙伴2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>降服伙伴3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>带1个伙伴出战</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>带3个伙伴出战</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>带2个伙伴出战</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>共同战胜犼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金乌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本玩法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>寻人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>寻物</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>寻找精英怪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开门</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>躲怪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>护送</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>拾取buff</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>强制战斗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝箱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>顺序杀怪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>顺序机关</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>顺序走位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>地形伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>传送门</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>进阶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在上述条件中增加时限性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>找到副本中的NPC进行对话</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>找到副本中的某个物件并拾取</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>找到副本中的某个怪物并进行战斗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>找到钥匙并开启阻碍的门</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>躲过怪物的巡视范围</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>护送人/物至指定地点（途中可能遇到战斗）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在boss或者特殊事件之前给予一个提示性的buff</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入某个场景后无法返回，必须战斗通过后才能继续行进</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>拾取宝箱后可能遇怪，获得道具，自残</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>按照一定的顺序消灭副本中的怪（互相之间有增益或者制约关系）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>按照一定的顺序开启机关</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>按照一定的顺序进入房间中才能通关</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>走到特定样式的地形上会受到伤害/治疗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>对局玩法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>集火</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>双生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>清buff</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>qte</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>强制换怪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高伤某个站位，需要换怪操作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>顺序杀怪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要在单位时间内杀掉2只怪，否则先死的一只会被另一只复活</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>解除buff的操作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位时间内对屏幕中出现的东西进行操作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击某个部位进行集火操作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>强制将已上场的伙伴换下场</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要在单位时间内换上肉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一定时间内无法使用照妖镜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一定时间内无法使用摸摸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一定时间内无法换怪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一定时间内无法使用道具</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>按照某种顺序杀怪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在上述条件中加入时限性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要在副本中拾取某种状态进入对局才能获胜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>部位破坏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>破坏boss的某个部位倒置技能或者AI的效果变化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标选择</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当A怪存在时，B怪永生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A怪属性根据B怪数量决定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽奖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>多个可选择的目标，需要选择主目标进行攻击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>免伤/反伤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>某个目标具有免物理/魔法伤害或者反伤的效果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>摸摸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>摸摸后目标属性下降</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>摸摸后目标属性上升</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本玩法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>寻找精英怪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>强制战斗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3个伙伴均达到5级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得第4个伙伴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>换怪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4个伙伴均达到10级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>首充可获得第5个伙伴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>降服伙伴4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得第3个伙伴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得第2个伙伴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得第1个伙伴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>寻找弱点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>寻人、寻物</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>拾取buff</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>送一个蛋，第二天孵化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天狗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标选择，先杀小怪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>先剧情，直接进副本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>教学</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放技能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>对话后直接进</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>升到2级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本选择</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>直接打开副本选择界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>流程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标选择</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启拜将台</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>引导点击拜将台</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>招募英雄</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>继续选择副本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>英雄上阵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>升到3级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>步骤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿戴道具</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>继续副本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>继续副本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能使用时机介绍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>引导打开角色界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿装备后进阶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大招打断教程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>升到4级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>强化打断教程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>元神招募</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>赠送vip1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>引导升级资源建筑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>引导收获资源</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>升到5级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启任务系统</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>引导完成任务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>升到6级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>引导领取章节通关奖励</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>阵型调整</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>继续副本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启书院</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>引导打开角色技能界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级技能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启群英会</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>引导进行群英会</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>群英会失败</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿戴装备</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成任务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>告知完成任务可以迅速升级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>引导打开角色升星界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>引导打开角色列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>引导打开角色装备</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>引导打开角色进阶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色升星</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>升到8级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>升到9级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启奇遇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术免疫教学</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>引导进行奇遇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成任务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>升到10级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标选择</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放技能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本选择</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>招募伙伴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能使用时机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>伙伴升星</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>孵蛋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>阵型调整</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级技能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术免疫教学</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放技能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本选择</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开摸摸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战败后花钱提升属性（方式待定）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上阵阵容调整</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能升级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开道具</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术免疫教学</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理免疫教学</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>顺序杀怪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>部位破坏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一章内容需要与孔老师商定，确定初始小怪的来路</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>二师兄</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>对局玩法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启家园</t>
+    <t>开启签到</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1355,63 +1415,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>开启困难副本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启竞技场</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启擂台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启通天塔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>开启狩猎场</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>开启通天塔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启签到</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启困难副本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启竞技场</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启擂台</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>降临boss</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>世界boss</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossrush</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>地藏宫殿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大冒险</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>公会副本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>公会战</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>满5伙伴且1个伙伴达到3星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得第5个伙伴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>降服伙伴5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1494,7 +1526,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1510,6 +1542,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1675,7 +1713,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1872,6 +1910,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2183,7 +2224,7 @@
   <dimension ref="B1:AK70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2313,19 +2354,19 @@
         <v>54</v>
       </c>
       <c r="R6" s="58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S6" s="65" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="T6" s="58" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="U6" s="62" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="V6" s="63" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="W6" s="63"/>
       <c r="X6" s="63"/>
@@ -2388,7 +2429,7 @@
       <c r="P7" s="45"/>
       <c r="Q7" s="14"/>
       <c r="R7" s="45" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="S7" s="12"/>
       <c r="T7" s="45"/>
@@ -2437,14 +2478,14 @@
       </c>
       <c r="N8" s="35"/>
       <c r="O8" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="P8" s="34" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="Q8" s="7"/>
       <c r="R8" s="34" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="S8" s="5"/>
       <c r="T8" s="34"/>
@@ -2496,7 +2537,7 @@
       <c r="P9" s="34"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="35" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="S9" s="7"/>
       <c r="T9" s="35"/>
@@ -2545,12 +2586,12 @@
       </c>
       <c r="N10" s="35"/>
       <c r="O10" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="P10" s="34"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="34" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="S10" s="5"/>
       <c r="T10" s="34"/>
@@ -2564,7 +2605,9 @@
       <c r="C11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="5">
+        <v>6</v>
+      </c>
       <c r="E11" s="6">
         <v>5</v>
       </c>
@@ -2600,11 +2643,11 @@
       <c r="N11" s="35"/>
       <c r="O11" s="7"/>
       <c r="P11" s="34" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="Q11" s="7"/>
       <c r="R11" s="35" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="S11" s="7"/>
       <c r="T11" s="35"/>
@@ -2627,9 +2670,7 @@
       <c r="C12" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="5">
-        <v>6</v>
-      </c>
+      <c r="D12" s="5"/>
       <c r="E12" s="6">
         <v>5</v>
       </c>
@@ -2664,12 +2705,12 @@
       </c>
       <c r="N12" s="35"/>
       <c r="O12" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="P12" s="34"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="34" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="S12" s="5"/>
       <c r="T12" s="34"/>
@@ -2728,7 +2769,7 @@
       <c r="P13" s="34"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="35" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="S13" s="7"/>
       <c r="T13" s="35"/>
@@ -2785,21 +2826,24 @@
       <c r="N14" s="36"/>
       <c r="O14" s="20"/>
       <c r="P14" s="41" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q14" s="20" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="R14" s="46" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="S14" s="18" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="T14" s="41" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="U14" s="52"/>
+      <c r="V14" s="1" t="s">
+        <v>351</v>
+      </c>
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
@@ -2851,18 +2895,18 @@
       </c>
       <c r="N15" s="38"/>
       <c r="O15" s="10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="P15" s="43"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="43" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="S15" s="8"/>
       <c r="T15" s="43"/>
       <c r="U15" s="55"/>
       <c r="AA15" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="2:37" x14ac:dyDescent="0.15">
@@ -2870,7 +2914,9 @@
       <c r="C16" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="8"/>
+      <c r="D16" s="8">
+        <v>11</v>
+      </c>
       <c r="E16" s="9">
         <v>5</v>
       </c>
@@ -2906,21 +2952,23 @@
       <c r="N16" s="38"/>
       <c r="O16" s="10"/>
       <c r="P16" s="43" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="Q16" s="10"/>
       <c r="R16" s="43"/>
       <c r="S16" s="8"/>
       <c r="T16" s="43"/>
-      <c r="U16" s="55"/>
+      <c r="U16" s="55" t="s">
+        <v>363</v>
+      </c>
       <c r="AB16" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AD16" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="2:37" x14ac:dyDescent="0.15">
@@ -2968,14 +3016,12 @@
       <c r="R17" s="43"/>
       <c r="S17" s="8"/>
       <c r="T17" s="43"/>
-      <c r="U17" s="55" t="s">
-        <v>352</v>
-      </c>
+      <c r="U17" s="55"/>
       <c r="AC17" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="2:37" x14ac:dyDescent="0.15">
@@ -3017,30 +3063,30 @@
         <v>49.70000000000001</v>
       </c>
       <c r="N18" s="38" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="O18" s="10"/>
       <c r="P18" s="43" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="R18" s="47" t="s">
-        <v>166</v>
+        <v>359</v>
       </c>
       <c r="S18" s="8" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="T18" s="43" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="U18" s="55"/>
       <c r="AC18" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AD18" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="AK18" s="4"/>
     </row>
@@ -3091,10 +3137,10 @@
       <c r="T19" s="43"/>
       <c r="U19" s="55"/>
       <c r="AC19" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="AD19" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AK19" s="4"/>
     </row>
@@ -3139,7 +3185,7 @@
       <c r="N20" s="38"/>
       <c r="O20" s="10"/>
       <c r="P20" s="43" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="Q20" s="10"/>
       <c r="R20" s="43"/>
@@ -3147,13 +3193,13 @@
       <c r="T20" s="43"/>
       <c r="U20" s="55"/>
       <c r="AB20" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="AD20" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AK20" s="4"/>
     </row>
@@ -3204,10 +3250,10 @@
       <c r="T21" s="43"/>
       <c r="U21" s="55"/>
       <c r="AC21" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="AD21" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AK21" s="4"/>
     </row>
@@ -3252,22 +3298,27 @@
       <c r="N22" s="39"/>
       <c r="O22" s="29"/>
       <c r="P22" s="44" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="Q22" s="29"/>
       <c r="R22" s="48" t="s">
-        <v>167</v>
+        <v>360</v>
       </c>
       <c r="S22" s="28" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="T22" s="44"/>
-      <c r="U22" s="56"/>
+      <c r="U22" s="56" t="s">
+        <v>364</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="AC22" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="AD22" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="2:37" x14ac:dyDescent="0.15">
@@ -3278,7 +3329,7 @@
         <v>20</v>
       </c>
       <c r="D23" s="12">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E23" s="13">
         <v>5</v>
@@ -3315,20 +3366,20 @@
       <c r="N23" s="40"/>
       <c r="O23" s="14"/>
       <c r="P23" s="45" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="Q23" s="14"/>
       <c r="R23" s="45"/>
       <c r="S23" s="12"/>
       <c r="T23" s="45"/>
       <c r="U23" s="50" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="AC23" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="AD23" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="2:37" x14ac:dyDescent="0.15">
@@ -3378,10 +3429,10 @@
       <c r="T24" s="34"/>
       <c r="U24" s="51"/>
       <c r="AC24" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AD24" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="2:37" x14ac:dyDescent="0.15">
@@ -3431,13 +3482,13 @@
       <c r="T25" s="34"/>
       <c r="U25" s="51"/>
       <c r="AB25" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="AC25" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="AD25" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="2:37" x14ac:dyDescent="0.15">
@@ -3481,24 +3532,24 @@
       <c r="N26" s="35"/>
       <c r="O26" s="7"/>
       <c r="P26" s="34" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="Q26" s="7"/>
       <c r="R26" s="49" t="s">
-        <v>168</v>
+        <v>362</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="T26" s="34" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="U26" s="51"/>
       <c r="AC26" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="AD26" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="2:37" x14ac:dyDescent="0.15">
@@ -3540,18 +3591,22 @@
         <v>87.250000000000014</v>
       </c>
       <c r="N27" s="35"/>
-      <c r="O27" s="7"/>
+      <c r="O27" s="7" t="s">
+        <v>371</v>
+      </c>
       <c r="P27" s="34"/>
       <c r="Q27" s="7"/>
-      <c r="R27" s="34"/>
+      <c r="R27" s="34" t="s">
+        <v>372</v>
+      </c>
       <c r="S27" s="5"/>
       <c r="T27" s="34"/>
       <c r="U27" s="51"/>
       <c r="AC27" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="AD27" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="2:37" x14ac:dyDescent="0.15">
@@ -3601,10 +3656,10 @@
       <c r="T28" s="34"/>
       <c r="U28" s="51"/>
       <c r="AC28" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="AD28" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="2:37" x14ac:dyDescent="0.15">
@@ -3648,7 +3703,7 @@
       <c r="N29" s="35"/>
       <c r="O29" s="7"/>
       <c r="P29" s="34" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="Q29" s="7"/>
       <c r="R29" s="34"/>
@@ -3656,7 +3711,7 @@
       <c r="T29" s="34"/>
       <c r="U29" s="51"/>
       <c r="AC29" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -3698,28 +3753,35 @@
         <v>100.60000000000002</v>
       </c>
       <c r="N30" s="36" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="O30" s="20" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="P30" s="41"/>
-      <c r="Q30" s="20"/>
+      <c r="Q30" s="20" t="s">
+        <v>370</v>
+      </c>
       <c r="R30" s="46" t="s">
-        <v>164</v>
+        <v>356</v>
       </c>
       <c r="S30" s="18" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="T30" s="41" t="s">
-        <v>343</v>
-      </c>
-      <c r="U30" s="53"/>
+        <v>337</v>
+      </c>
+      <c r="U30" s="53" t="s">
+        <v>366</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>353</v>
+      </c>
       <c r="AB30" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="AC30" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="2:37" x14ac:dyDescent="0.15">
@@ -3730,7 +3792,7 @@
         <v>41</v>
       </c>
       <c r="D31" s="22">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E31" s="23">
         <v>5</v>
@@ -3767,14 +3829,14 @@
       <c r="N31" s="37"/>
       <c r="O31" s="24"/>
       <c r="P31" s="42" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="Q31" s="24"/>
       <c r="R31" s="42"/>
       <c r="S31" s="22"/>
       <c r="T31" s="42"/>
       <c r="U31" s="54" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
     </row>
     <row r="32" spans="2:37" x14ac:dyDescent="0.15">
@@ -3844,9 +3906,11 @@
       <c r="O34" s="10"/>
       <c r="P34" s="43"/>
       <c r="Q34" s="10"/>
-      <c r="R34" s="43"/>
+      <c r="R34" s="47" t="s">
+        <v>361</v>
+      </c>
       <c r="S34" s="8" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="T34" s="43"/>
       <c r="U34" s="55"/>
@@ -3923,7 +3987,7 @@
       <c r="T37" s="43"/>
       <c r="U37" s="55"/>
       <c r="AA37" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -3944,25 +4008,26 @@
       <c r="N38" s="39"/>
       <c r="O38" s="29"/>
       <c r="P38" s="44"/>
-      <c r="Q38" s="29" t="s">
-        <v>364</v>
-      </c>
+      <c r="Q38" s="29"/>
       <c r="R38" s="48" t="s">
-        <v>177</v>
+        <v>357</v>
       </c>
       <c r="S38" s="28"/>
       <c r="T38" s="44"/>
       <c r="U38" s="56" t="s">
-        <v>353</v>
+        <v>369</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>354</v>
       </c>
       <c r="AB38" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="AC38" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="AD38" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="2:30" x14ac:dyDescent="0.15">
@@ -3973,7 +4038,7 @@
         <v>128</v>
       </c>
       <c r="D39" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
@@ -3991,14 +4056,12 @@
       <c r="R39" s="45"/>
       <c r="S39" s="12"/>
       <c r="T39" s="45"/>
-      <c r="U39" s="50" t="s">
-        <v>354</v>
-      </c>
+      <c r="U39" s="50"/>
       <c r="AC39" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="AD39" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="2:30" x14ac:dyDescent="0.15">
@@ -4025,10 +4088,10 @@
       <c r="T40" s="34"/>
       <c r="U40" s="51"/>
       <c r="AC40" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="AD40" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="41" spans="2:30" x14ac:dyDescent="0.15">
@@ -4055,10 +4118,10 @@
       <c r="T41" s="34"/>
       <c r="U41" s="51"/>
       <c r="AC41" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="AD41" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="42" spans="2:30" x14ac:dyDescent="0.15">
@@ -4079,7 +4142,7 @@
       <c r="N42" s="35"/>
       <c r="O42" s="7"/>
       <c r="P42" s="34" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="Q42" s="7"/>
       <c r="R42" s="34"/>
@@ -4087,10 +4150,10 @@
       <c r="T42" s="34"/>
       <c r="U42" s="51"/>
       <c r="AC42" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="AD42" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="43" spans="2:30" x14ac:dyDescent="0.15">
@@ -4141,13 +4204,13 @@
       <c r="T44" s="34"/>
       <c r="U44" s="51"/>
       <c r="AB44" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="AC44" s="1" t="s">
         <v>109</v>
       </c>
       <c r="AD44" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="45" spans="2:30" x14ac:dyDescent="0.15">
@@ -4177,7 +4240,7 @@
         <v>110</v>
       </c>
       <c r="AD45" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="46" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -4199,23 +4262,26 @@
       <c r="O46" s="20"/>
       <c r="P46" s="41"/>
       <c r="Q46" s="20"/>
-      <c r="R46" s="46" t="s">
-        <v>261</v>
+      <c r="R46" s="66" t="s">
+        <v>358</v>
       </c>
       <c r="S46" s="18" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="T46" s="41" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="U46" s="53" t="s">
-        <v>350</v>
+        <v>367</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>355</v>
       </c>
       <c r="AC46" s="1" t="s">
         <v>112</v>
       </c>
       <c r="AD46" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="47" spans="2:30" x14ac:dyDescent="0.15">
@@ -4226,7 +4292,7 @@
         <v>136</v>
       </c>
       <c r="D47" s="22">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E47" s="24"/>
       <c r="F47" s="24"/>
@@ -4245,13 +4311,13 @@
       <c r="S47" s="22"/>
       <c r="T47" s="42"/>
       <c r="U47" s="54" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="AC47" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="AD47" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="48" spans="2:30" x14ac:dyDescent="0.15">
@@ -4278,10 +4344,10 @@
       <c r="T48" s="43"/>
       <c r="U48" s="55"/>
       <c r="AC48" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AD48" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="49" spans="2:30" x14ac:dyDescent="0.15">
@@ -4308,10 +4374,10 @@
       <c r="T49" s="43"/>
       <c r="U49" s="55"/>
       <c r="AC49" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="AD49" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="50" spans="2:30" x14ac:dyDescent="0.15">
@@ -4338,10 +4404,10 @@
       <c r="T50" s="43"/>
       <c r="U50" s="55"/>
       <c r="AC50" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AD50" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="51" spans="2:30" x14ac:dyDescent="0.15">
@@ -4368,10 +4434,10 @@
       <c r="T51" s="43"/>
       <c r="U51" s="55"/>
       <c r="AC51" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="AD51" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="52" spans="2:30" x14ac:dyDescent="0.15">
@@ -4398,7 +4464,7 @@
       <c r="T52" s="43"/>
       <c r="U52" s="55"/>
       <c r="AD52" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="53" spans="2:30" x14ac:dyDescent="0.15">
@@ -4445,19 +4511,19 @@
       <c r="P54" s="44"/>
       <c r="Q54" s="29"/>
       <c r="R54" s="64" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="S54" s="28"/>
       <c r="T54" s="44"/>
       <c r="U54" s="56"/>
       <c r="AB54" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AC54" s="1" t="s">
         <v>111</v>
       </c>
       <c r="AD54" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="55" spans="2:30" x14ac:dyDescent="0.15">
@@ -4467,9 +4533,7 @@
       <c r="C55" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="D55" s="12">
-        <v>30</v>
-      </c>
+      <c r="D55" s="12"/>
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
       <c r="G55" s="14"/>
@@ -4486,14 +4550,12 @@
       <c r="R55" s="45"/>
       <c r="S55" s="12"/>
       <c r="T55" s="45"/>
-      <c r="U55" s="50" t="s">
-        <v>351</v>
-      </c>
+      <c r="U55" s="50"/>
       <c r="AC55" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="AD55" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="56" spans="2:30" x14ac:dyDescent="0.15">
@@ -4520,10 +4582,10 @@
       <c r="T56" s="34"/>
       <c r="U56" s="51"/>
       <c r="AC56" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="AD56" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="57" spans="2:30" x14ac:dyDescent="0.15">
@@ -4550,7 +4612,7 @@
       <c r="T57" s="34"/>
       <c r="U57" s="51"/>
       <c r="AD57" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="58" spans="2:30" x14ac:dyDescent="0.15">
@@ -4601,10 +4663,10 @@
       <c r="T59" s="34"/>
       <c r="U59" s="51"/>
       <c r="AB59" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="AC59" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="60" spans="2:30" x14ac:dyDescent="0.15">
@@ -4631,7 +4693,7 @@
       <c r="T60" s="34"/>
       <c r="U60" s="51"/>
       <c r="AC60" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="61" spans="2:30" x14ac:dyDescent="0.15">
@@ -4707,7 +4769,7 @@
       <c r="S63" s="22"/>
       <c r="T63" s="42"/>
       <c r="U63" s="54" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
     </row>
     <row r="64" spans="2:30" x14ac:dyDescent="0.15">
@@ -4733,7 +4795,7 @@
       <c r="S64" s="8"/>
       <c r="T64" s="43"/>
       <c r="U64" s="55" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
     </row>
     <row r="65" spans="2:21" x14ac:dyDescent="0.15">
@@ -4759,7 +4821,7 @@
       <c r="S65" s="8"/>
       <c r="T65" s="43"/>
       <c r="U65" s="55" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
     </row>
     <row r="66" spans="2:21" x14ac:dyDescent="0.15">
@@ -4785,7 +4847,7 @@
       <c r="S66" s="8"/>
       <c r="T66" s="43"/>
       <c r="U66" s="55" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
     </row>
     <row r="67" spans="2:21" x14ac:dyDescent="0.15">
@@ -4811,7 +4873,7 @@
       <c r="S67" s="8"/>
       <c r="T67" s="43"/>
       <c r="U67" s="55" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
     </row>
     <row r="68" spans="2:21" x14ac:dyDescent="0.15">
@@ -4837,7 +4899,7 @@
       <c r="S68" s="8"/>
       <c r="T68" s="43"/>
       <c r="U68" s="55" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
     </row>
     <row r="69" spans="2:21" x14ac:dyDescent="0.15">
@@ -4863,7 +4925,7 @@
       <c r="S69" s="8"/>
       <c r="T69" s="43"/>
       <c r="U69" s="55" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
     </row>
     <row r="70" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -4889,7 +4951,7 @@
       <c r="S70" s="28"/>
       <c r="T70" s="44"/>
       <c r="U70" s="56" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -5149,7 +5211,7 @@
   <dimension ref="B2:P54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="P17" sqref="O17:P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -5161,24 +5223,24 @@
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.15">
       <c r="G2" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.15">
@@ -5186,19 +5248,19 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="O5" s="1">
         <v>1</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.15">
@@ -5206,10 +5268,10 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.15">
@@ -5217,15 +5279,15 @@
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -5233,7 +5295,7 @@
         <v>2</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.15">
@@ -5241,10 +5303,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -5257,13 +5319,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -5273,7 +5335,7 @@
         <v>3</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.15">
@@ -5281,10 +5343,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.15">
@@ -5292,16 +5354,16 @@
         <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="O11" s="1">
         <v>4</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.15">
@@ -5309,7 +5371,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.15">
@@ -5317,16 +5379,16 @@
         <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="O13" s="1">
         <v>7</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.15">
@@ -5334,13 +5396,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.15">
@@ -5348,16 +5410,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="O15" s="1">
         <v>9</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.15">
@@ -5365,10 +5427,10 @@
         <v>12</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.15">
@@ -5376,16 +5438,16 @@
         <v>13</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="O17" s="1">
         <v>12</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.15">
@@ -5393,7 +5455,7 @@
         <v>14</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.15">
@@ -5401,13 +5463,13 @@
         <v>15</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="O19" s="1">
         <v>25</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.15">
@@ -5415,7 +5477,7 @@
         <v>16</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.15">
@@ -5423,13 +5485,13 @@
         <v>17</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="O21" s="1">
         <v>28</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.15">
@@ -5437,7 +5499,7 @@
         <v>18</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.15">
@@ -5445,19 +5507,19 @@
         <v>19</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="O23" s="1">
         <v>39</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.15">
@@ -5465,10 +5527,10 @@
         <v>20</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.15">
@@ -5476,7 +5538,7 @@
         <v>21</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.15">
@@ -5484,7 +5546,7 @@
         <v>22</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.15">
@@ -5492,7 +5554,7 @@
         <v>23</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.15">
@@ -5500,10 +5562,10 @@
         <v>24</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.15">
@@ -5511,10 +5573,10 @@
         <v>25</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.15">
@@ -5522,7 +5584,7 @@
         <v>26</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.15">
@@ -5530,10 +5592,10 @@
         <v>27</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.15">
@@ -5541,10 +5603,10 @@
         <v>28</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.15">
@@ -5552,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.15">
@@ -5560,10 +5622,10 @@
         <v>30</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.15">
@@ -5571,7 +5633,7 @@
         <v>31</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.15">
@@ -5579,10 +5641,10 @@
         <v>32</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.15">
@@ -5590,10 +5652,10 @@
         <v>33</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.15">
@@ -5601,7 +5663,7 @@
         <v>34</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.15">
@@ -5609,10 +5671,10 @@
         <v>35</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.15">
@@ -5620,7 +5682,7 @@
         <v>36</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.15">
@@ -5628,10 +5690,10 @@
         <v>37</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.15">
@@ -5639,10 +5701,10 @@
         <v>38</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.15">
@@ -5650,13 +5712,13 @@
         <v>39</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.15">
@@ -5664,7 +5726,7 @@
         <v>40</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.15">
@@ -5672,10 +5734,10 @@
         <v>41</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.15">

--- a/gd/副本系统/主线副本规划.xlsx
+++ b/gd/副本系统/主线副本规划.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="11880"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="11880" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="副本规划" sheetId="1" r:id="rId1"/>
     <sheet name="玩法讨论（自留）" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="规划参考（自留）" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="528">
   <si>
     <t>章节</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -615,14 +615,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>营救妲己</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>降服伙伴1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>降服伙伴2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -631,31 +623,1131 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>带3个伙伴出战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>带2个伙伴出战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>共同战胜犼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本玩法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻找精英怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>躲怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>护送</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拾取buff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制战斗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝箱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序杀怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序机关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序走位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地形伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进阶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在上述条件中增加时限性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>找到副本中的NPC进行对话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>找到副本中的某个物件并拾取</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>找到副本中的某个怪物并进行战斗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>找到钥匙并开启阻碍的门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>躲过怪物的巡视范围</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>护送人/物至指定地点（途中可能遇到战斗）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在boss或者特殊事件之前给予一个提示性的buff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入某个场景后无法返回，必须战斗通过后才能继续行进</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拾取宝箱后可能遇怪，获得道具，自残</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照一定的顺序消灭副本中的怪（互相之间有增益或者制约关系）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照一定的顺序开启机关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照一定的顺序进入房间中才能通关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>走到特定样式的地形上会受到伤害/治疗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局玩法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集火</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>双生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清buff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qte</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制换怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高伤某个站位，需要换怪操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序杀怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要在单位时间内杀掉2只怪，否则先死的一只会被另一只复活</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解除buff的操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位时间内对屏幕中出现的东西进行操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击某个部位进行集火操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制将已上场的伙伴换下场</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要在单位时间内换上肉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一定时间内无法使用照妖镜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一定时间内无法使用摸摸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一定时间内无法换怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一定时间内无法使用道具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照某种顺序杀怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在上述条件中加入时限性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要在副本中拾取某种状态进入对局才能获胜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部位破坏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>破坏boss的某个部位倒置技能或者AI的效果变化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标选择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当A怪存在时，B怪永生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A怪属性根据B怪数量决定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽奖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多个可选择的目标，需要选择主目标进行攻击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>免伤/反伤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>某个目标具有免物理/魔法伤害或者反伤的效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>摸摸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>摸摸后目标属性下降</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>摸摸后目标属性上升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本玩法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻找精英怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制战斗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个伙伴均达到5级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得第4个伙伴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>换怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4个伙伴均达到10级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>首充可获得第5个伙伴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>降服伙伴4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻找弱点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻人、寻物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拾取buff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>送一个蛋，第二天孵化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标选择，先杀小怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先剧情，直接进副本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话后直接进</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升到2级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本选择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接打开副本选择界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标选择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启拜将台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导点击拜将台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募英雄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续选择副本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄上阵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升到3级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>步骤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿戴道具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续副本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续副本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能使用时机介绍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导打开角色界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿装备后进阶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招打断教程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升到4级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化打断教程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>元神招募</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赠送vip1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导升级资源建筑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导收获资源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升到5级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启任务系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导完成任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升到6级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导领取章节通关奖励</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵型调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续副本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启书院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导打开角色技能界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启群英会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导进行群英会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>群英会失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿戴装备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>告知完成任务可以迅速升级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导打开角色升星界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导打开角色列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导打开角色装备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导打开角色进阶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色升星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升到8级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升到9级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启奇遇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术免疫教学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导进行奇遇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升到10级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标选择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本选择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募伙伴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能使用时机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伙伴升星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孵蛋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵型调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术免疫教学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开摸摸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战败后花钱提升属性（方式待定）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上阵阵容调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能升级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开道具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术免疫教学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理免疫教学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序杀怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部位破坏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一章内容需要与孔老师商定，确定初始小怪的来路</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二师兄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局玩法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启家园</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>降临boss</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界boss</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossrush</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地藏宫殿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大冒险</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会副本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二个尾巴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三个尾巴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四个尾巴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五个尾巴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第六个尾巴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金乌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天狗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>空缺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖狼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应龙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>勾结道士</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护祖先</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启签到</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启日常任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启困难副本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启竞技场</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启擂台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启通天塔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启狩猎场</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>满5伙伴且1个伙伴达到3星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得第5个伙伴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>降服伙伴5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>营救妲己，收服伙伴1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得第1个伙伴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标选择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>带1个伙伴出战</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>带3个伙伴出战</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>带2个伙伴出战</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>共同战胜犼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本玩法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>寻人</t>
+    <t>获得第2个伙伴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得第3个伙伴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本选择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本层</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局层</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>简述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>形式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标选择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物差异</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理免疫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术免疫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理反伤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术反伤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集火多个怪物中的某个</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集火同一个怪物的某个部位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集火A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集火B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物搭配</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>双生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>某两个怪物需要在同一个出手间隔内死亡，否则先死亡的会被后死亡的复活</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大因小强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大因小弱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有小怪存在时，大怪的属性比较强，需要先杀小怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有小怪存在时，大怪的属性比较弱，需要先杀大怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>因X而强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>因X而弱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标因为己方上场的怪物为某个类型而变强，需要将其换下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标因为己方上场的怪物为某个类型而变若，需要保留其上阵或者换上该类型的怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序杀怪A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当场上存在小怪时，击杀大怪后大怪会重生，需要最后杀大怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当场上存在大怪时，大怪在小怪死亡后继续召唤小怪，需要先杀大怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序杀怪B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算条件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有物理免疫buff的怪不受物理攻击伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有物理反伤buff的怪在受到物理攻击时不会受到伤害同时会将伤害反弹给施法者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有法术免疫buff的怪不受法术攻击伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有法术反伤buff的怪在受到法术攻击时不会受到伤害同时会将伤害反弹给施法者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>限时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀掉特殊怪，对局直接胜利</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀掉特殊怪，对局直接失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部位破坏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击目标的某个部位会导致该目标技能或者AI变化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qte</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中了debuff需要单位时间内点击屏幕，点掉屏幕上的东西才能继续</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置相关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制换怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预警某个站位，下次出手造成高伤伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高伤站位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本中携带某些buff后进入对局</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff影响</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>封锁换怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>封锁摸摸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>封锁道具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>封锁照妖镜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜欢被摸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反感被摸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>摸后属性下降</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>摸后属性上升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一定时间内无法使用摸摸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一定时间内无法使用道具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一定时间内无法使用照妖镜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一定时间内无法换怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊怪A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊怪B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局玩法汇总</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本玩法汇总</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>简述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜集寻找</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>找钥匙开门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>找机关开门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消灭怪物开门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开门条件A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开门条件B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开门条件C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>找人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>找到某个固定的NPC</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -663,15 +1755,83 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>寻找精英怪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开门</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级</t>
+    <t>找到某个固定的道具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>找怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻找某个固定的怪物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态变化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拾取增益buff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拾取妨害buff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拾取buffA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拾取buffB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过河流草地可以恢复状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过毒气火焰可以损失状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地形伤害A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地形伤害B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭配玩法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序杀怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要按照一定顺序进行遇怪以及杀怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序机关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要按照一定顺序开启机关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序走位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>限定每个路线的可行走次数，当达到次数时可能会受到伤害（需要避免无法继续进行）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动相关</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -679,11 +1839,83 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>限定可遇怪次数，玩家可以选择最优路线或者收益进行躲怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机传送到任意房间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送到固定房间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送门A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送门B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送带</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入房间后强制向某个方向移动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定时间内通关副本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定时间内通过某个区域</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>限时A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>限时B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启后可遇怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启后可获得道具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启后可自损</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝箱A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝箱B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝箱C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>护送</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>拾取buff</t>
+    <t>护送某个NPC移动到某个区域，途中遇怪会将NPC拉入对局中</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -691,215 +1923,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>高级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝箱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>顺序杀怪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>顺序机关</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>顺序走位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>地形伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>传送门</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>进阶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在上述条件中增加时限性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>找到副本中的NPC进行对话</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>找到副本中的某个物件并拾取</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>找到副本中的某个怪物并进行战斗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>找到钥匙并开启阻碍的门</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>躲过怪物的巡视范围</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>护送人/物至指定地点（途中可能遇到战斗）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在boss或者特殊事件之前给予一个提示性的buff</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入某个场景后无法返回，必须战斗通过后才能继续行进</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>拾取宝箱后可能遇怪，获得道具，自残</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>按照一定的顺序消灭副本中的怪（互相之间有增益或者制约关系）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>按照一定的顺序开启机关</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>按照一定的顺序进入房间中才能通关</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>走到特定样式的地形上会受到伤害/治疗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>对局玩法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>集火</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>双生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>清buff</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>qte</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>强制换怪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高伤某个站位，需要换怪操作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>顺序杀怪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要在单位时间内杀掉2只怪，否则先死的一只会被另一只复活</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>解除buff的操作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位时间内对屏幕中出现的东西进行操作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击某个部位进行集火操作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>强制将已上场的伙伴换下场</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要在单位时间内换上肉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一定时间内无法使用照妖镜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一定时间内无法使用摸摸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一定时间内无法换怪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一定时间内无法使用道具</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>按照某种顺序杀怪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在上述条件中加入时限性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要在副本中拾取某种状态进入对局才能获胜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>部位破坏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>破坏boss的某个部位倒置技能或者AI的效果变化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标选择</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当A怪存在时，B怪永生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A怪属性根据B怪数量决定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽奖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>多个可选择的目标，需要选择主目标进行攻击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>免伤/反伤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>某个目标具有免物理/魔法伤害或者反伤的效果</t>
+    <t>某个区域只能进不能出，必须战斗后才能离开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼空间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷出某个特定的随机怪，可以建立在强制战斗的情况下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰富对局内其他玩法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>照妖镜</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -907,543 +1947,123 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>摸摸后目标属性下降</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>摸摸后目标属性上升</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本玩法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>寻找精英怪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>强制战斗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3个伙伴均达到5级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得第4个伙伴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>换怪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4个伙伴均达到10级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>首充可获得第5个伙伴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>降服伙伴4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得第3个伙伴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得第2个伙伴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得第1个伙伴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>寻找弱点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>寻人、寻物</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>拾取buff</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>送一个蛋，第二天孵化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标选择，先杀小怪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>先剧情，直接进副本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>教学</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放技能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>对话后直接进</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>升到2级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本选择</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>直接打开副本选择界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>流程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标选择</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启拜将台</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>引导点击拜将台</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>招募英雄</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>继续选择副本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>英雄上阵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>升到3级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>步骤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿戴道具</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>继续副本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>继续副本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能使用时机介绍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>引导打开角色界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿装备后进阶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大招打断教程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>升到4级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>强化打断教程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>元神招募</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>赠送vip1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>引导升级资源建筑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>引导收获资源</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>升到5级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启任务系统</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>引导完成任务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>升到6级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>引导领取章节通关奖励</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>阵型调整</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>继续副本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启书院</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>引导打开角色技能界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级技能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启群英会</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>引导进行群英会</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>群英会失败</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿戴装备</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成任务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>告知完成任务可以迅速升级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>引导打开角色升星界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>引导打开角色列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>引导打开角色装备</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>引导打开角色进阶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色升星</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>升到8级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>升到9级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启奇遇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术免疫教学</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>引导进行奇遇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成任务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>升到10级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标选择</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放技能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本选择</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>招募伙伴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能使用时机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>伙伴升星</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>孵蛋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>阵型调整</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级技能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术免疫教学</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放技能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本选择</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开摸摸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战败后花钱提升属性（方式待定）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上阵阵容调整</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能升级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开道具</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术免疫教学</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理免疫教学</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>顺序杀怪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>部位破坏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一章内容需要与孔老师商定，确定初始小怪的来路</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>二师兄</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>对局玩法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启家园</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>降临boss</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>世界boss</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossrush</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>地藏宫殿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大冒险</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>公会副本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>公会战</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二个尾巴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三个尾巴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>第四个尾巴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>第五个尾巴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>第六个尾巴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金乌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天狗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>空缺</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>妖狼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>应龙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>勾结道士</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护祖先</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启签到</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启日常任务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启困难副本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启竞技场</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启擂台</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启通天塔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启狩猎场</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>满5伙伴且1个伙伴达到3星</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得第5个伙伴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>降服伙伴5</t>
+    <t>道具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>换位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>混乱了玩家，强制进行一次换怪的操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>摸摸可打断</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>摸摸提升大招使用频率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>突出最鲜明的玩法---集火</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>限制对局时长，达到时长未达到胜利条件则失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有如天助</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>照妖镜可以看到某些特定的彩蛋式内容，比如怪物上方的大石头，照射时间长之后时候落下会对怪物造成大量伤害，类似这种方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火上浇油</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>照妖镜可以寻找出的东西并不一定就是对玩家有利的，需要玩家自行判断，也可能有帮助怪物提升属性效果的作用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理方式是否也是一种形式，比如有个大太阳，利用照妖镜可以把怪物烤死=，=</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个大的怪物，本身特别大，很难击垮，但是用照妖镜可以将其缩小</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物身上有一个小的部件，需要用照妖镜照着才能攻击之类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自我检查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>照妖镜也可以照己方伙伴身上的异常状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>就是个镜子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>区分敌我不同效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱除懒惰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方伙伴懒惰的时候摸摸可以立刻参战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以让性格发挥更明显</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以增加使用的大招的能力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>躲避高伤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预警某个站位受到高伤，可以换位抵挡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型增强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型减弱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当上场的有某个类型的伙伴时，会增加敌方效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当上场的有某个类型的伙伴时，会减弱敌方效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>站位攻击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先攻击某个站位的怪，需要将t换过来</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1451,7 +2071,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1521,6 +2141,28 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -1713,7 +2355,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1914,6 +2556,27 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2223,8 +2886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AK70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2240,7 +2903,7 @@
     <col min="15" max="15" width="21.625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.5" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.75" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14.5" style="1" customWidth="1"/>
     <col min="20" max="20" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="19.5" style="3" bestFit="1" customWidth="1"/>
@@ -2357,16 +3020,16 @@
         <v>164</v>
       </c>
       <c r="S6" s="65" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="T6" s="58" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="U6" s="62" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="V6" s="63" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="W6" s="63"/>
       <c r="X6" s="63"/>
@@ -2425,11 +3088,13 @@
         <v>3.85</v>
       </c>
       <c r="N7" s="40"/>
-      <c r="O7" s="14"/>
+      <c r="O7" s="14" t="s">
+        <v>367</v>
+      </c>
       <c r="P7" s="45"/>
       <c r="Q7" s="14"/>
       <c r="R7" s="45" t="s">
-        <v>165</v>
+        <v>366</v>
       </c>
       <c r="S7" s="12"/>
       <c r="T7" s="45"/>
@@ -2477,15 +3142,13 @@
         <v>8.5500000000000007</v>
       </c>
       <c r="N8" s="35"/>
-      <c r="O8" s="7" t="s">
-        <v>251</v>
-      </c>
+      <c r="O8" s="7"/>
       <c r="P8" s="34" t="s">
-        <v>230</v>
+        <v>368</v>
       </c>
       <c r="Q8" s="7"/>
       <c r="R8" s="34" t="s">
-        <v>166</v>
+        <v>369</v>
       </c>
       <c r="S8" s="5"/>
       <c r="T8" s="34"/>
@@ -2533,11 +3196,13 @@
         <v>12.4</v>
       </c>
       <c r="N9" s="35"/>
-      <c r="O9" s="7"/>
+      <c r="O9" s="7" t="s">
+        <v>370</v>
+      </c>
       <c r="P9" s="34"/>
       <c r="Q9" s="7"/>
-      <c r="R9" s="35" t="s">
-        <v>169</v>
+      <c r="R9" s="34" t="s">
+        <v>165</v>
       </c>
       <c r="S9" s="7"/>
       <c r="T9" s="35"/>
@@ -2585,13 +3250,13 @@
         <v>16.25</v>
       </c>
       <c r="N10" s="35"/>
-      <c r="O10" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="P10" s="34"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="34" t="s">
+        <v>372</v>
+      </c>
       <c r="Q10" s="7"/>
-      <c r="R10" s="34" t="s">
-        <v>167</v>
+      <c r="R10" s="35" t="s">
+        <v>168</v>
       </c>
       <c r="S10" s="5"/>
       <c r="T10" s="34"/>
@@ -2641,13 +3306,13 @@
         <v>20.7</v>
       </c>
       <c r="N11" s="35"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="34" t="s">
-        <v>328</v>
-      </c>
+      <c r="O11" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P11" s="34"/>
       <c r="Q11" s="7"/>
-      <c r="R11" s="35" t="s">
-        <v>171</v>
+      <c r="R11" s="34" t="s">
+        <v>166</v>
       </c>
       <c r="S11" s="7"/>
       <c r="T11" s="35"/>
@@ -2704,13 +3369,11 @@
         <v>24.55</v>
       </c>
       <c r="N12" s="35"/>
-      <c r="O12" s="7" t="s">
-        <v>249</v>
-      </c>
+      <c r="O12" s="7"/>
       <c r="P12" s="34"/>
       <c r="Q12" s="7"/>
-      <c r="R12" s="34" t="s">
-        <v>168</v>
+      <c r="R12" s="35" t="s">
+        <v>167</v>
       </c>
       <c r="S12" s="5"/>
       <c r="T12" s="34"/>
@@ -2768,9 +3431,7 @@
       <c r="O13" s="7"/>
       <c r="P13" s="34"/>
       <c r="Q13" s="7"/>
-      <c r="R13" s="35" t="s">
-        <v>170</v>
-      </c>
+      <c r="R13" s="34"/>
       <c r="S13" s="7"/>
       <c r="T13" s="35"/>
       <c r="U13" s="51"/>
@@ -2826,23 +3487,23 @@
       <c r="N14" s="36"/>
       <c r="O14" s="20"/>
       <c r="P14" s="41" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="Q14" s="20" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="R14" s="46" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="S14" s="18" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="T14" s="41" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="U14" s="52"/>
       <c r="V14" s="1" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
@@ -2895,18 +3556,18 @@
       </c>
       <c r="N15" s="38"/>
       <c r="O15" s="10" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P15" s="43"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="43" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="S15" s="8"/>
       <c r="T15" s="43"/>
       <c r="U15" s="55"/>
       <c r="AA15" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="2:37" x14ac:dyDescent="0.15">
@@ -2952,23 +3613,23 @@
       <c r="N16" s="38"/>
       <c r="O16" s="10"/>
       <c r="P16" s="43" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="10"/>
       <c r="R16" s="43"/>
       <c r="S16" s="8"/>
       <c r="T16" s="43"/>
       <c r="U16" s="55" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AD16" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="2:37" x14ac:dyDescent="0.15">
@@ -3018,10 +3679,10 @@
       <c r="T17" s="43"/>
       <c r="U17" s="55"/>
       <c r="AC17" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="2:37" x14ac:dyDescent="0.15">
@@ -3063,30 +3724,30 @@
         <v>49.70000000000001</v>
       </c>
       <c r="N18" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="O18" s="10"/>
       <c r="P18" s="43" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="R18" s="47" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="S18" s="8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="T18" s="43" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="U18" s="55"/>
       <c r="AC18" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AD18" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AK18" s="4"/>
     </row>
@@ -3137,10 +3798,10 @@
       <c r="T19" s="43"/>
       <c r="U19" s="55"/>
       <c r="AC19" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AD19" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AK19" s="4"/>
     </row>
@@ -3185,7 +3846,7 @@
       <c r="N20" s="38"/>
       <c r="O20" s="10"/>
       <c r="P20" s="43" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="Q20" s="10"/>
       <c r="R20" s="43"/>
@@ -3193,13 +3854,13 @@
       <c r="T20" s="43"/>
       <c r="U20" s="55"/>
       <c r="AB20" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="AD20" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AK20" s="4"/>
     </row>
@@ -3250,10 +3911,10 @@
       <c r="T21" s="43"/>
       <c r="U21" s="55"/>
       <c r="AC21" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AD21" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AK21" s="4"/>
     </row>
@@ -3298,27 +3959,27 @@
       <c r="N22" s="39"/>
       <c r="O22" s="29"/>
       <c r="P22" s="44" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="Q22" s="29"/>
       <c r="R22" s="48" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="S22" s="28" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="T22" s="44"/>
       <c r="U22" s="56" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="AC22" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AD22" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="2:37" x14ac:dyDescent="0.15">
@@ -3366,20 +4027,20 @@
       <c r="N23" s="40"/>
       <c r="O23" s="14"/>
       <c r="P23" s="45" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="Q23" s="14"/>
       <c r="R23" s="45"/>
       <c r="S23" s="12"/>
       <c r="T23" s="45"/>
       <c r="U23" s="50" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="AC23" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AD23" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="2:37" x14ac:dyDescent="0.15">
@@ -3429,10 +4090,10 @@
       <c r="T24" s="34"/>
       <c r="U24" s="51"/>
       <c r="AC24" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="AD24" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="2:37" x14ac:dyDescent="0.15">
@@ -3482,13 +4143,13 @@
       <c r="T25" s="34"/>
       <c r="U25" s="51"/>
       <c r="AB25" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AC25" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="AD25" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="2:37" x14ac:dyDescent="0.15">
@@ -3532,24 +4193,24 @@
       <c r="N26" s="35"/>
       <c r="O26" s="7"/>
       <c r="P26" s="34" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q26" s="7"/>
       <c r="R26" s="49" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="T26" s="34" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="U26" s="51"/>
       <c r="AC26" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AD26" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="2:37" x14ac:dyDescent="0.15">
@@ -3592,21 +4253,21 @@
       </c>
       <c r="N27" s="35"/>
       <c r="O27" s="7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="P27" s="34"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="34" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="S27" s="5"/>
       <c r="T27" s="34"/>
       <c r="U27" s="51"/>
       <c r="AC27" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AD27" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="2:37" x14ac:dyDescent="0.15">
@@ -3656,10 +4317,10 @@
       <c r="T28" s="34"/>
       <c r="U28" s="51"/>
       <c r="AC28" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AD28" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="2:37" x14ac:dyDescent="0.15">
@@ -3703,7 +4364,7 @@
       <c r="N29" s="35"/>
       <c r="O29" s="7"/>
       <c r="P29" s="34" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="Q29" s="7"/>
       <c r="R29" s="34"/>
@@ -3711,7 +4372,7 @@
       <c r="T29" s="34"/>
       <c r="U29" s="51"/>
       <c r="AC29" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -3753,35 +4414,35 @@
         <v>100.60000000000002</v>
       </c>
       <c r="N30" s="36" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="O30" s="20" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="P30" s="41"/>
       <c r="Q30" s="20" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="R30" s="46" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="S30" s="18" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="T30" s="41" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="U30" s="53" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="AB30" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AC30" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="2:37" x14ac:dyDescent="0.15">
@@ -3829,14 +4490,14 @@
       <c r="N31" s="37"/>
       <c r="O31" s="24"/>
       <c r="P31" s="42" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="Q31" s="24"/>
       <c r="R31" s="42"/>
       <c r="S31" s="22"/>
       <c r="T31" s="42"/>
       <c r="U31" s="54" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="32" spans="2:37" x14ac:dyDescent="0.15">
@@ -3907,10 +4568,10 @@
       <c r="P34" s="43"/>
       <c r="Q34" s="10"/>
       <c r="R34" s="47" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="S34" s="8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="T34" s="43"/>
       <c r="U34" s="55"/>
@@ -3987,7 +4648,7 @@
       <c r="T37" s="43"/>
       <c r="U37" s="55"/>
       <c r="AA37" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -4010,24 +4671,24 @@
       <c r="P38" s="44"/>
       <c r="Q38" s="29"/>
       <c r="R38" s="48" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="S38" s="28"/>
       <c r="T38" s="44"/>
       <c r="U38" s="56" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="AB38" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AC38" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AD38" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="39" spans="2:30" x14ac:dyDescent="0.15">
@@ -4058,10 +4719,10 @@
       <c r="T39" s="45"/>
       <c r="U39" s="50"/>
       <c r="AC39" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AD39" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" spans="2:30" x14ac:dyDescent="0.15">
@@ -4088,10 +4749,10 @@
       <c r="T40" s="34"/>
       <c r="U40" s="51"/>
       <c r="AC40" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AD40" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="41" spans="2:30" x14ac:dyDescent="0.15">
@@ -4118,10 +4779,10 @@
       <c r="T41" s="34"/>
       <c r="U41" s="51"/>
       <c r="AC41" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AD41" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="42" spans="2:30" x14ac:dyDescent="0.15">
@@ -4142,7 +4803,7 @@
       <c r="N42" s="35"/>
       <c r="O42" s="7"/>
       <c r="P42" s="34" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="Q42" s="7"/>
       <c r="R42" s="34"/>
@@ -4150,10 +4811,10 @@
       <c r="T42" s="34"/>
       <c r="U42" s="51"/>
       <c r="AC42" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AD42" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="43" spans="2:30" x14ac:dyDescent="0.15">
@@ -4204,13 +4865,13 @@
       <c r="T44" s="34"/>
       <c r="U44" s="51"/>
       <c r="AB44" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AC44" s="1" t="s">
         <v>109</v>
       </c>
       <c r="AD44" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="45" spans="2:30" x14ac:dyDescent="0.15">
@@ -4240,7 +4901,7 @@
         <v>110</v>
       </c>
       <c r="AD45" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="46" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -4263,25 +4924,25 @@
       <c r="P46" s="41"/>
       <c r="Q46" s="20"/>
       <c r="R46" s="66" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="S46" s="18" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="T46" s="41" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="U46" s="53" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="AC46" s="1" t="s">
         <v>112</v>
       </c>
       <c r="AD46" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="2:30" x14ac:dyDescent="0.15">
@@ -4311,13 +4972,13 @@
       <c r="S47" s="22"/>
       <c r="T47" s="42"/>
       <c r="U47" s="54" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="AC47" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AD47" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="48" spans="2:30" x14ac:dyDescent="0.15">
@@ -4344,10 +5005,10 @@
       <c r="T48" s="43"/>
       <c r="U48" s="55"/>
       <c r="AC48" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AD48" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49" spans="2:30" x14ac:dyDescent="0.15">
@@ -4374,10 +5035,10 @@
       <c r="T49" s="43"/>
       <c r="U49" s="55"/>
       <c r="AC49" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="AD49" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="50" spans="2:30" x14ac:dyDescent="0.15">
@@ -4404,10 +5065,10 @@
       <c r="T50" s="43"/>
       <c r="U50" s="55"/>
       <c r="AC50" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AD50" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="51" spans="2:30" x14ac:dyDescent="0.15">
@@ -4434,10 +5095,10 @@
       <c r="T51" s="43"/>
       <c r="U51" s="55"/>
       <c r="AC51" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AD51" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="52" spans="2:30" x14ac:dyDescent="0.15">
@@ -4464,7 +5125,7 @@
       <c r="T52" s="43"/>
       <c r="U52" s="55"/>
       <c r="AD52" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="53" spans="2:30" x14ac:dyDescent="0.15">
@@ -4511,19 +5172,19 @@
       <c r="P54" s="44"/>
       <c r="Q54" s="29"/>
       <c r="R54" s="64" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="S54" s="28"/>
       <c r="T54" s="44"/>
       <c r="U54" s="56"/>
       <c r="AB54" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AC54" s="1" t="s">
         <v>111</v>
       </c>
       <c r="AD54" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="55" spans="2:30" x14ac:dyDescent="0.15">
@@ -4552,10 +5213,10 @@
       <c r="T55" s="45"/>
       <c r="U55" s="50"/>
       <c r="AC55" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AD55" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="56" spans="2:30" x14ac:dyDescent="0.15">
@@ -4582,10 +5243,10 @@
       <c r="T56" s="34"/>
       <c r="U56" s="51"/>
       <c r="AC56" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AD56" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="57" spans="2:30" x14ac:dyDescent="0.15">
@@ -4612,7 +5273,7 @@
       <c r="T57" s="34"/>
       <c r="U57" s="51"/>
       <c r="AD57" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="58" spans="2:30" x14ac:dyDescent="0.15">
@@ -4663,10 +5324,10 @@
       <c r="T59" s="34"/>
       <c r="U59" s="51"/>
       <c r="AB59" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AC59" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="60" spans="2:30" x14ac:dyDescent="0.15">
@@ -4693,7 +5354,7 @@
       <c r="T60" s="34"/>
       <c r="U60" s="51"/>
       <c r="AC60" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="61" spans="2:30" x14ac:dyDescent="0.15">
@@ -4769,7 +5430,7 @@
       <c r="S63" s="22"/>
       <c r="T63" s="42"/>
       <c r="U63" s="54" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="64" spans="2:30" x14ac:dyDescent="0.15">
@@ -4795,7 +5456,7 @@
       <c r="S64" s="8"/>
       <c r="T64" s="43"/>
       <c r="U64" s="55" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="65" spans="2:21" x14ac:dyDescent="0.15">
@@ -4821,7 +5482,7 @@
       <c r="S65" s="8"/>
       <c r="T65" s="43"/>
       <c r="U65" s="55" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="66" spans="2:21" x14ac:dyDescent="0.15">
@@ -4847,7 +5508,7 @@
       <c r="S66" s="8"/>
       <c r="T66" s="43"/>
       <c r="U66" s="55" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="67" spans="2:21" x14ac:dyDescent="0.15">
@@ -4873,7 +5534,7 @@
       <c r="S67" s="8"/>
       <c r="T67" s="43"/>
       <c r="U67" s="55" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="68" spans="2:21" x14ac:dyDescent="0.15">
@@ -4899,7 +5560,7 @@
       <c r="S68" s="8"/>
       <c r="T68" s="43"/>
       <c r="U68" s="55" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="69" spans="2:21" x14ac:dyDescent="0.15">
@@ -4925,7 +5586,7 @@
       <c r="S69" s="8"/>
       <c r="T69" s="43"/>
       <c r="U69" s="55" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="70" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -4951,7 +5612,7 @@
       <c r="S70" s="28"/>
       <c r="T70" s="44"/>
       <c r="U70" s="56" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -4967,236 +5628,919 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q36"/>
+  <dimension ref="A1:AA100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="75.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B2" s="32" t="s">
+    <row r="1" spans="1:25" s="69" customFormat="1" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="68" t="s">
+        <v>436</v>
+      </c>
+      <c r="W1" s="70" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.15">
+      <c r="B2" s="72" t="s">
+        <v>377</v>
+      </c>
+      <c r="C2" s="72" t="s">
+        <v>375</v>
+      </c>
+      <c r="D2" s="72" t="s">
+        <v>376</v>
+      </c>
+      <c r="E2" s="72"/>
+      <c r="W2" s="32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="C4" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="W4" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="C5" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="C6" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="W6" s="32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="W7" s="32"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="B8" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="W8" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="C9" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="C10" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="W10" s="32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="C11" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="C12" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="W13" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="B14" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="W14" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="C15" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="C16" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="W16" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="C17" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="C18" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="W18" s="32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="W19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B20" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="C21" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="C22" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="W23" s="32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B24" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="W24" s="32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="C25" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="26" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="C26" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="W26" s="32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="W27" s="32"/>
+    </row>
+    <row r="28" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B28" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="W28" s="32"/>
+    </row>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="C29" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="W29" s="32"/>
+    </row>
+    <row r="30" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="C30" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="W30" s="32"/>
+    </row>
+    <row r="31" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="C31" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="W31" s="32"/>
+    </row>
+    <row r="32" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="C32" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="W32" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y32" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA32" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="W33" s="32"/>
+      <c r="Y33" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA33" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B34" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="W34" s="32" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B35" s="32" t="s">
+        <v>496</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="W35" s="32"/>
+    </row>
+    <row r="36" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B36" s="32"/>
+      <c r="C36" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="W36" s="32"/>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B37" s="32"/>
+      <c r="C37" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="W37" s="32"/>
+    </row>
+    <row r="38" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B38" s="32"/>
+      <c r="D38" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="W38" s="32"/>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B39" s="32"/>
+      <c r="D39" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="W39" s="32"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B40" s="32"/>
+      <c r="C40" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="W40" s="32"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B41" s="32"/>
+      <c r="W41" s="32"/>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B42" s="32" t="s">
+        <v>497</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="W42" s="32"/>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B43" s="32"/>
+      <c r="D43" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="W43" s="32"/>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B44" s="32"/>
+      <c r="C44" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="W44" s="32"/>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B45" s="32"/>
+      <c r="D45" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="W45" s="32"/>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B46" s="32"/>
+      <c r="C46" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="W46" s="32"/>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B47" s="32"/>
+      <c r="C47" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="W47" s="32"/>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B48" s="32"/>
+      <c r="D48" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="W48" s="32"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B49" s="32"/>
+      <c r="D49" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="W49" s="32"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B50" s="32"/>
+      <c r="W50" s="32"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B51" s="32" t="s">
+        <v>498</v>
+      </c>
+      <c r="W51" s="32"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B52" s="32"/>
+      <c r="W52" s="32"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B53" s="32" t="s">
+        <v>499</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="W53" s="32"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B54" s="32"/>
+      <c r="C54" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="W54" s="32"/>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B55" s="32"/>
+      <c r="C55" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="W55" s="32"/>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B56" s="32"/>
+      <c r="C56" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="W56" s="32"/>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B57" s="32"/>
+      <c r="W57" s="32"/>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W58" s="32"/>
+    </row>
+    <row r="59" spans="1:23" s="69" customFormat="1" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="A59" s="68" t="s">
+        <v>437</v>
+      </c>
+      <c r="W59" s="71" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" ht="21" x14ac:dyDescent="0.15">
+      <c r="B60" s="72" t="s">
+        <v>377</v>
+      </c>
+      <c r="C60" s="72" t="s">
+        <v>438</v>
+      </c>
+      <c r="D60" s="72" t="s">
+        <v>439</v>
+      </c>
+      <c r="W60" s="32" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B61" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="C62" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="C63" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="C64" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="W64" s="67" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="C65" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="C66" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="W66" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="Y66" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="Z66" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B4" s="32" t="s">
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B68" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="W68" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="Y68" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="Z68" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B6" s="33" t="s">
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="C69" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="C70" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="W70" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="Y70" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B8" s="32" t="s">
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="C71" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="W72" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="M8" s="1" t="s">
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B73" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="C74" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="W74" s="73" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="C75" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="C76" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="W76" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y76" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="W77" s="33"/>
+    </row>
+    <row r="78" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="W78" s="33"/>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B79" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="80" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="C80" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="W80" s="73" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="81" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="C81" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="82" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="C82" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="W82" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="O8" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="O9" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B10" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B12" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B14" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B18" s="1" t="s">
+      <c r="X82" s="73"/>
+      <c r="Y82" s="73"/>
+    </row>
+    <row r="83" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="W83" s="73"/>
+      <c r="X83" s="73"/>
+      <c r="Y83" s="73"/>
+    </row>
+    <row r="84" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="B84" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="W84" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="M18" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B20" s="1" t="s">
+      <c r="X84" s="73"/>
+      <c r="Y84" s="73"/>
+    </row>
+    <row r="85" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="C85" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="W85" s="73"/>
+      <c r="X85" s="73"/>
+      <c r="Y85" s="73"/>
+    </row>
+    <row r="86" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="C86" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="W86" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="X86" s="73"/>
+      <c r="Y86" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="M20" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B22" s="33" t="s">
+    </row>
+    <row r="87" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="C87" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="88" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="C88" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="W88" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="Y88" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="M22" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B24" s="1" t="s">
+    </row>
+    <row r="89" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="C89" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="90" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="C90" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="W90" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="Y90" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="M24" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B26" s="1" t="s">
+    </row>
+    <row r="92" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="W92" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="M26" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B28" s="1" t="s">
+    </row>
+    <row r="93" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="W93" s="73"/>
+    </row>
+    <row r="94" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="W94" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="Y94" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="M28" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B30" s="1" t="s">
+    </row>
+    <row r="96" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="W96" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="Y96" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="M30" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="O31" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B32" s="1" t="s">
+    </row>
+    <row r="97" spans="23:25" x14ac:dyDescent="0.15">
+      <c r="W97" s="73"/>
+    </row>
+    <row r="98" spans="23:25" x14ac:dyDescent="0.15">
+      <c r="W98" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="Y98" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="M33" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B34" s="1" t="s">
+    <row r="100" spans="23:25" x14ac:dyDescent="0.15">
+      <c r="W100" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="Y100" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="M35" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="M36" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -5211,7 +6555,7 @@
   <dimension ref="B2:P54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P17" sqref="O17:P17"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -5223,24 +6567,24 @@
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.15">
       <c r="G2" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.15">
@@ -5248,19 +6592,19 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="O5" s="1">
         <v>1</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.15">
@@ -5268,10 +6612,10 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.15">
@@ -5279,15 +6623,15 @@
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -5295,7 +6639,7 @@
         <v>2</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.15">
@@ -5303,10 +6647,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -5319,13 +6663,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -5335,7 +6679,7 @@
         <v>3</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.15">
@@ -5343,10 +6687,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.15">
@@ -5354,16 +6698,16 @@
         <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="O11" s="1">
         <v>4</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.15">
@@ -5371,7 +6715,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.15">
@@ -5379,16 +6723,16 @@
         <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="O13" s="1">
         <v>7</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.15">
@@ -5396,13 +6740,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.15">
@@ -5410,16 +6754,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="O15" s="1">
         <v>9</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.15">
@@ -5427,10 +6771,10 @@
         <v>12</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.15">
@@ -5438,16 +6782,16 @@
         <v>13</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="O17" s="1">
         <v>12</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.15">
@@ -5455,7 +6799,7 @@
         <v>14</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.15">
@@ -5463,13 +6807,13 @@
         <v>15</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="O19" s="1">
         <v>25</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.15">
@@ -5477,7 +6821,7 @@
         <v>16</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.15">
@@ -5485,13 +6829,13 @@
         <v>17</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="O21" s="1">
         <v>28</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.15">
@@ -5499,7 +6843,7 @@
         <v>18</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.15">
@@ -5507,19 +6851,19 @@
         <v>19</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="O23" s="1">
         <v>39</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.15">
@@ -5527,10 +6871,10 @@
         <v>20</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.15">
@@ -5538,7 +6882,7 @@
         <v>21</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.15">
@@ -5546,7 +6890,7 @@
         <v>22</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.15">
@@ -5554,7 +6898,7 @@
         <v>23</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.15">
@@ -5562,10 +6906,10 @@
         <v>24</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.15">
@@ -5573,10 +6917,10 @@
         <v>25</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.15">
@@ -5584,7 +6928,7 @@
         <v>26</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.15">
@@ -5592,10 +6936,10 @@
         <v>27</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.15">
@@ -5603,10 +6947,10 @@
         <v>28</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.15">
@@ -5614,7 +6958,7 @@
         <v>29</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.15">
@@ -5622,10 +6966,10 @@
         <v>30</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.15">
@@ -5633,7 +6977,7 @@
         <v>31</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.15">
@@ -5641,10 +6985,10 @@
         <v>32</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.15">
@@ -5652,10 +6996,10 @@
         <v>33</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.15">
@@ -5663,7 +7007,7 @@
         <v>34</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.15">
@@ -5671,10 +7015,10 @@
         <v>35</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.15">
@@ -5682,7 +7026,7 @@
         <v>36</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.15">
@@ -5690,10 +7034,10 @@
         <v>37</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.15">
@@ -5701,10 +7045,10 @@
         <v>38</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.15">
@@ -5712,13 +7056,13 @@
         <v>39</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.15">
@@ -5726,7 +7070,7 @@
         <v>40</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.15">
@@ -5734,10 +7078,10 @@
         <v>41</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.15">

--- a/gd/副本系统/主线副本规划.xlsx
+++ b/gd/副本系统/主线副本规划.xlsx
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'玩法讨论（自留）'!$M$2:$M$41</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="874">
   <si>
     <t>章节</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2516,848 +2516,908 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>qte</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏幕中出现特殊操作事件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中debuff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天气相关，有冰霜、雨雪效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先解除阻碍操作的问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先解除阻碍操作的问题（清除屏幕冰雪、常用技能防止伙伴冻住等）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地域影响懒惰程度（高原反应）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天气影响速度（被冻住）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在副本中携带某些buff后进入对局</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可见的大石头，需要玩家使用照妖镜寻找，找到则砸怪物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看玩家细心程度以及运气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可见的内容不一定都对玩家有利，需要玩家进行区分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验积累以及照妖镜使用权重</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>照妖镜物理应用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>放大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩小</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>折射</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>折射太阳光，照射怕光的怪物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标的弱点十分小，需要照妖镜放大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个大的怪物，本身特别大，很难击垮，利用照妖镜将其缩小</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩法考点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反应</t>
+  </si>
+  <si>
+    <t>智商</t>
+  </si>
+  <si>
+    <t>运气</t>
+  </si>
+  <si>
+    <t>反应</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗自己治疗其他怪物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当a血量低于xx%（较低值）时，下一个出手时会为其他怪物加血</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反应</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用照妖镜几率清除异常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表现&amp;提示形式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>明显可见，但需要玩家碰运气，对实际时间模型影响较小</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>养成性效果，可在loadingtips中提示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不会明显标识，在通关一次之后玩家会发现问题并总结</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>营造紧张气氛，如果与其他玩法结合则为进阶方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要找准时机，在达成条件的一个出手周期内消灭目标，或者提前消灭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低效果为连线特效或者debuff特效标识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩法释义</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反应</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反应</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>照妖镜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火上浇油</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果影响</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外部事件影响效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>养成性效果，可在loadingtips中提示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>站位调整&amp;目标选择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理减免类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理免疫类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标选择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a对b有增益效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要先将有增益效果的b消灭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a和b在对方死亡后同一个出手周期内将对方复活</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要将ab在同一个出手周期中同时消灭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要玩家找准时机，在同一个周期中消灭目标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a未死亡，b会无限复活</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要先将a全部消灭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要保护a不受更多伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开局后A会进行喊话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升敌方目标受治疗效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先消灭此类目标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升效果为连线特效或者buff特效标识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>达到条件治疗自己</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当a血量低于xx%（较低值）时，下一个出手时会为自己加血</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反应</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>换上法术类伤害的伙伴或者使用法术技能攻击目标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>换上物理类伤害的伙伴或者使用物理技能攻击目标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集火同一个怪物的某个部位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集火B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小虫从显示出来到消失是有时限的，需要在时间内进行操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>照妖镜可照射出无法直接看到的内容，显示在照妖镜上时可以直接通过照妖镜操作（如目标身上有小虫，点击后可以将其点爆对目标造成伤害，如果未点爆则对玩家伙伴造成伤害）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>照妖镜中操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有如天助</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>摇摇欲坠的可见的大石头（之类），使用照妖镜照了之后大石头可以砸怪物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>考反应与照妖镜的使用权重</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过颜色(暂定黄色)+tips（技能↑）标识加成属性的弱点功能，玩家需要进行选择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过颜色(暂定红色)+tips（受伤比↑）标识加成属性的弱点功能，玩家需要进行选择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过颜色(暂定绿色)+tips（属性↑）标识加成属性的弱点功能，玩家需要进行选择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过颜色(暂定蓝色)+tips（可破坏）标识加成属性的弱点功能，玩家需要进行选择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似点击泰坦空中飞下的仙子的设计，需要玩家在飞落期间内进行操作，照射到该内容后照妖镜读条操作，持续一段时间后照射成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理效果会直接表现在特效（可以是魔法球之类样式）上，玩家可以直接辨别，但需要搭配阵型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术效果会直接表现在特效（可以是护盾之类样式）上，玩家可以直接辨别，但需要搭配阵型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术效果会直接表现在特效（可以是护盾之类样式）上，玩家可以直接辨别，但需要搭配阵型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>照射到可以操作的内容时，出现可点击的UI动画提示（比如手指点击动作），引导玩家进行操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开战后连线特效表示增益关系（暂定绿线），需要玩家及时换怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开战后连线特效表示制约关系（暂定红线），需要玩家及时换怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效直接反馈在站位位置（站位下方出现红色圆圈），需要玩家及时换怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效直接反馈在站位位置（站位下方出现蓝色圆圈），需要玩家及时换怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增益效果为连线特效表示（暂定绿线）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>制约效果为连线特效表示（暂定红线或锁链）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开局后B会进行泡泡喊话（只要我活着，a将永远存在！），每次召唤时也会进行喊话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开局后B会进行泡泡喊话（只要还有小弟在，我是不会死的！），每次复活时也会进行喊话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消灭a，会降低b的能力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要先将a全部消灭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开局后B会进行泡泡喊话（小的们为我提供这能量！），每次a死亡时也会进行喊话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标选择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消灭a，会提升b的能力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要先将b消灭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反应</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开局后B会进行泡泡喊话（谁敢动我兄弟，我和谁没完！），每次a死亡时也会进行喊话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a死亡后，对局直接失败（可增加时限，比如a会在一定时间后逃跑）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开局后A会进行喊话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此类事件通常在出现的一段时间内需要进行操作（出现UI动画进行提示操作）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此类事件通常在出现的一段时间内需要进行操作（出现UI动画进行提示操作）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要玩家寻找但是还不一定能找到的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☆☆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☆☆☆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☆☆☆☆☆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☆☆☆☆☆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☆☆☆☆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☆☆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☆☆☆☆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☆☆☆☆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☆☆☆☆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3~4s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不确定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6~10s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2~3s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2~3s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2~3s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2~3s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~2s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~2s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~2s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~2s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不确定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作/反应时长</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3~4s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3~4s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2~3s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2~3s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~2s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3~4s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3~4s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>站位预警1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>站位预警2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>封锁换怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制换怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低治疗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升治疗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗治疗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗自己</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a对b增益</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a对b制约</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>双生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复活</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a死b提升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a死b降低</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a死对局胜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a死对局败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻非隐物-增益</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻隐物-增益</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻隐物-未知</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻隐物-操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点加成-属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点加成-受伤比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点加成-技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐藏弱点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物免</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物减</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物反</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法免</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法减</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法反</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方成员影响-增益1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方成员影响-制约1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方成员影响-增益2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方成员影响-制约2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点加成-属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a死对局胜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a死对局胜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a对b增益</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a对b增益</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a死b降低</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法免</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法免</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术免疫教学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理免疫教学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理免疫教学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物免</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物免</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>九尾狐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗治疗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>双生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱厌、杜若</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗自己</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>双生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qte&amp;限时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>双生&amp;限时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>双生&amp;物免</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a死b降低&amp;限时&amp;强制换怪&amp;寻隐物-操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法免&amp;治疗自己</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法免&amp;治疗自己</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复活&amp;a对b制约</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻非隐物-增益</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻隐物-增益</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可选玩法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定搭配的怪物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点加成-受伤比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>站位预警1&amp;弱点加成-受伤比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>站位预警2&amp;a对b增益&amp;弱点加成-属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a死亡后，对局直接胜利（可增加时限，比如a会在一定时间后逃跑）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>需要优先将a消灭</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>qte</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>屏幕中出现特殊操作事件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中debuff</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天气相关，有冰霜、雨雪效果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>优先解除阻碍操作的问题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>优先解除阻碍操作的问题（清除屏幕冰雪、常用技能防止伙伴冻住等）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>地域影响懒惰程度（高原反应）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天气影响速度（被冻住）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在副本中携带某些buff后进入对局</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不可见的大石头，需要玩家使用照妖镜寻找，找到则砸怪物</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>看玩家细心程度以及运气</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可见的内容不一定都对玩家有利，需要玩家进行区分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验积累以及照妖镜使用权重</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>照妖镜物理应用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>放大</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>缩小</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>折射</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>折射太阳光，照射怕光的怪物</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标的弱点十分小，需要照妖镜放大</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个大的怪物，本身特别大，很难击垮，利用照妖镜将其缩小</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩法考点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>反应</t>
-  </si>
-  <si>
-    <t>智商</t>
-  </si>
-  <si>
-    <t>运气</t>
-  </si>
-  <si>
-    <t>反应</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗自己治疗其他怪物</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当a血量低于xx%（较低值）时，下一个出手时会为其他怪物加血</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>运气</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>反应</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>运气</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用照妖镜几率清除异常</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>表现&amp;提示形式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>明显可见，但需要玩家碰运气，对实际时间模型影响较小</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>养成性效果，可在loadingtips中提示</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不会明显标识，在通关一次之后玩家会发现问题并总结</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>营造紧张气氛，如果与其他玩法结合则为进阶方式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要找准时机，在达成条件的一个出手周期内消灭目标，或者提前消灭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>降低效果为连线特效或者debuff特效标识</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩法释义</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>反应</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>反应</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>照妖镜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>火上浇油</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果影响</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>外部事件影响效果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>养成性效果，可在loadingtips中提示</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>站位调整&amp;目标选择</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理减免类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理免疫类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标选择</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a对b有增益效果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要先将有增益效果的b消灭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a和b在对方死亡后同一个出手周期内将对方复活</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要将ab在同一个出手周期中同时消灭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要玩家找准时机，在同一个周期中消灭目标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a未死亡，b会无限复活</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要先将a全部消灭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要保护a不受更多伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开局后A会进行喊话</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升敌方目标受治疗效果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>先消灭此类目标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升效果为连线特效或者buff特效标识</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>达到条件治疗自己</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当a血量低于xx%（较低值）时，下一个出手时会为自己加血</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>反应</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>换上法术类伤害的伙伴或者使用法术技能攻击目标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>换上物理类伤害的伙伴或者使用物理技能攻击目标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>集火同一个怪物的某个部位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>集火B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>运气</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小虫从显示出来到消失是有时限的，需要在时间内进行操作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>照妖镜可照射出无法直接看到的内容，显示在照妖镜上时可以直接通过照妖镜操作（如目标身上有小虫，点击后可以将其点爆对目标造成伤害，如果未点爆则对玩家伙伴造成伤害）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>照妖镜中操作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>有如天助</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>摇摇欲坠的可见的大石头（之类），使用照妖镜照了之后大石头可以砸怪物</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>考反应与照妖镜的使用权重</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过颜色(暂定黄色)+tips（技能↑）标识加成属性的弱点功能，玩家需要进行选择</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过颜色(暂定红色)+tips（受伤比↑）标识加成属性的弱点功能，玩家需要进行选择</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过颜色(暂定绿色)+tips（属性↑）标识加成属性的弱点功能，玩家需要进行选择</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过颜色(暂定蓝色)+tips（可破坏）标识加成属性的弱点功能，玩家需要进行选择</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>类似点击泰坦空中飞下的仙子的设计，需要玩家在飞落期间内进行操作，照射到该内容后照妖镜读条操作，持续一段时间后照射成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理效果会直接表现在特效（可以是魔法球之类样式）上，玩家可以直接辨别，但需要搭配阵型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术效果会直接表现在特效（可以是护盾之类样式）上，玩家可以直接辨别，但需要搭配阵型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术效果会直接表现在特效（可以是护盾之类样式）上，玩家可以直接辨别，但需要搭配阵型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>照射到可以操作的内容时，出现可点击的UI动画提示（比如手指点击动作），引导玩家进行操作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开战后连线特效表示增益关系（暂定绿线），需要玩家及时换怪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开战后连线特效表示制约关系（暂定红线），需要玩家及时换怪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>特效直接反馈在站位位置（站位下方出现红色圆圈），需要玩家及时换怪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>特效直接反馈在站位位置（站位下方出现蓝色圆圈），需要玩家及时换怪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>增益效果为连线特效表示（暂定绿线）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>制约效果为连线特效表示（暂定红线或锁链）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开局后B会进行泡泡喊话（只要我活着，a将永远存在！），每次召唤时也会进行喊话</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开局后B会进行泡泡喊话（只要还有小弟在，我是不会死的！），每次复活时也会进行喊话</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>消灭a，会降低b的能力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要先将a全部消灭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开局后B会进行泡泡喊话（小的们为我提供这能量！），每次a死亡时也会进行喊话</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标选择</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>消灭a，会提升b的能力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要先将b消灭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>反应</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开局后B会进行泡泡喊话（谁敢动我兄弟，我和谁没完！），每次a死亡时也会进行喊话</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a死亡后，对局直接胜利（可增加时限，比如a会在一定时间后逃跑）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a死亡后，对局直接失败（可增加时限，比如a会在一定时间后逃跑）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开局后A会进行喊话</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>此类事件通常在出现的一段时间内需要进行操作（出现UI动画进行提示操作）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>此类事件通常在出现的一段时间内需要进行操作（出现UI动画进行提示操作）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>优先度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要玩家寻找但是还不一定能找到的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>☆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>☆☆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>☆☆☆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>☆☆☆☆☆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>☆☆☆☆☆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>☆☆☆☆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>☆☆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>☆☆☆☆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>☆☆☆☆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>☆☆☆☆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3~4s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不确定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6~10s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2~3s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2~3s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2~3s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2~3s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1~2s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1~2s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1~2s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1~2s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不确定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作/反应时长</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3~4s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3~4s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2~3s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2~3s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1~2s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3~4s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3~4s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>站位预警1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>站位预警2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>封锁换怪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>强制换怪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>降低治疗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升治疗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗治疗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>治疗自己</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a对b增益</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a对b制约</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>双生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>复活</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a死b提升</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a死b降低</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a死对局胜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a死对局败</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>寻非隐物-增益</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>寻隐物-增益</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>寻隐物-未知</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>寻隐物-操作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弱点加成-属性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弱点加成-受伤比</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弱点加成-技能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>隐藏弱点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>物免</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>物减</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>物反</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>法免</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>法减</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>法反</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>己方成员影响-增益1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>己方成员影响-制约1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>己方成员影响-增益2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>己方成员影响-制约2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弱点加成-属性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a死对局胜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a死对局胜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a对b增益</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a对b增益</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a死b降低</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>法免</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>法免</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术免疫教学</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理免疫教学</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理免疫教学</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>物免</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>物免</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>九尾狐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>混沌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗治疗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>双生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱厌、杜若</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>治疗自己</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>双生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>qte&amp;限时</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>双生&amp;限时</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>双生&amp;物免</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a死b降低&amp;限时&amp;强制换怪&amp;寻隐物-操作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>法免&amp;治疗自己</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>法免&amp;治疗自己</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>复活&amp;a对b制约</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>寻非隐物-增益</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>寻隐物-增益</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可选玩法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>固定搭配的怪物</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弱点加成-受伤比</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>站位预警1&amp;弱点加成-受伤比</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>站位预警2&amp;a对b增益&amp;弱点加成-属性</t>
+    <t>对局时间影响</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（-15%~-5%）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（-5%~5）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（-15%~-5%）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（-10%~-5%）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（-10%~-5%）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（-5%）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（-5%）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（-5%）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（-5%）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（-10%~-5%）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（-15%~-10%）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（-15%~-10%）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（-20%~-15%）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（-20%~-15%）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3809,7 +3869,7 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4166,6 +4226,39 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -4490,8 +4583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="AD21" sqref="AD21"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -4651,10 +4744,10 @@
       <c r="AA6" s="61"/>
       <c r="AB6" s="61"/>
       <c r="AC6" s="118" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="AD6" s="118" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="AF6" s="4" t="s">
         <v>106</v>
@@ -4731,7 +4824,7 @@
       <c r="V7" s="45"/>
       <c r="W7" s="48"/>
       <c r="AC7" s="64" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="AF7" s="4" t="s">
         <v>107</v>
@@ -4786,15 +4879,15 @@
         <v>519</v>
       </c>
       <c r="T8" s="71" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="U8" s="5"/>
       <c r="V8" s="34" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="W8" s="49"/>
       <c r="AC8" s="104" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="AF8" s="1" t="s">
         <v>112</v>
@@ -4855,7 +4948,7 @@
       <c r="V9" s="35"/>
       <c r="W9" s="49"/>
       <c r="AC9" s="64" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="AF9" s="4" t="s">
         <v>108</v>
@@ -4916,7 +5009,7 @@
       <c r="V10" s="34"/>
       <c r="W10" s="49"/>
       <c r="AC10" s="104" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="AF10" s="4" t="s">
         <v>109</v>
@@ -4979,7 +5072,7 @@
       <c r="V11" s="35"/>
       <c r="W11" s="49"/>
       <c r="AC11" s="94" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="AE11" s="1">
         <v>1</v>
@@ -5047,7 +5140,7 @@
       <c r="V12" s="34"/>
       <c r="W12" s="49"/>
       <c r="AC12" s="104" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="AE12" s="1">
         <v>23</v>
@@ -5116,10 +5209,10 @@
       <c r="V13" s="35"/>
       <c r="W13" s="49"/>
       <c r="AC13" s="64" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="AD13" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AE13" s="1">
         <v>45</v>
@@ -5192,17 +5285,17 @@
         <v>225</v>
       </c>
       <c r="V14" s="41" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="W14" s="50"/>
       <c r="X14" s="1" t="s">
         <v>322</v>
       </c>
       <c r="AC14" s="104" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="AF14" s="4"/>
       <c r="AG14" s="4"/>
@@ -5276,7 +5369,7 @@
       <c r="V15" s="43"/>
       <c r="W15" s="53"/>
       <c r="AC15" s="64" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="AF15" s="1" t="s">
         <v>157</v>
@@ -5341,7 +5434,7 @@
         <v>327</v>
       </c>
       <c r="AC16" s="104" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="AG16" s="1" t="s">
         <v>158</v>
@@ -5404,11 +5497,11 @@
       </c>
       <c r="U17" s="8"/>
       <c r="V17" s="43" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="W17" s="53"/>
       <c r="AC17" s="64" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="AH17" s="1" t="s">
         <v>160</v>
@@ -5476,11 +5569,11 @@
         <v>162</v>
       </c>
       <c r="V18" s="43" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="W18" s="53"/>
       <c r="AC18" s="104" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="AH18" s="1" t="s">
         <v>161</v>
@@ -5543,7 +5636,7 @@
       <c r="V19" s="43"/>
       <c r="W19" s="53"/>
       <c r="AC19" s="64" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="AH19" s="1" t="s">
         <v>162</v>
@@ -5606,11 +5699,11 @@
       </c>
       <c r="U20" s="8"/>
       <c r="V20" s="43" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="W20" s="53"/>
       <c r="AC20" s="104" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="AG20" s="1" t="s">
         <v>163</v>
@@ -5674,11 +5767,11 @@
       </c>
       <c r="U21" s="8"/>
       <c r="V21" s="43" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="W21" s="53"/>
       <c r="AC21" s="64" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="AH21" s="1" t="s">
         <v>165</v>
@@ -5750,7 +5843,7 @@
         <v>232</v>
       </c>
       <c r="V22" s="44" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="W22" s="54" t="s">
         <v>328</v>
@@ -5759,7 +5852,7 @@
         <v>323</v>
       </c>
       <c r="AC22" s="104" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="AH22" s="1" t="s">
         <v>166</v>
@@ -5831,7 +5924,7 @@
         <v>313</v>
       </c>
       <c r="AC23" s="64" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="AH23" s="1" t="s">
         <v>167</v>
@@ -5891,11 +5984,11 @@
       </c>
       <c r="U24" s="5"/>
       <c r="V24" s="34" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="W24" s="49"/>
       <c r="AC24" s="104" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="AH24" s="1" t="s">
         <v>169</v>
@@ -5957,7 +6050,7 @@
       <c r="V25" s="34"/>
       <c r="W25" s="49"/>
       <c r="AC25" s="64" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="AG25" s="1" t="s">
         <v>168</v>
@@ -6022,11 +6115,11 @@
         <v>308</v>
       </c>
       <c r="V26" s="34" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="W26" s="49"/>
       <c r="AC26" s="104" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="AH26" s="1" t="s">
         <v>171</v>
@@ -6093,7 +6186,7 @@
       <c r="V27" s="34"/>
       <c r="W27" s="49"/>
       <c r="AC27" s="64" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="AH27" s="1" t="s">
         <v>172</v>
@@ -6153,11 +6246,11 @@
       </c>
       <c r="U28" s="5"/>
       <c r="V28" s="34" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="W28" s="49"/>
       <c r="AC28" s="104" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="AH28" s="1" t="s">
         <v>173</v>
@@ -6217,11 +6310,11 @@
       </c>
       <c r="U29" s="5"/>
       <c r="V29" s="34" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="W29" s="49"/>
       <c r="AC29" s="64" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="AH29" s="1" t="s">
         <v>174</v>
@@ -6287,7 +6380,7 @@
         <v>233</v>
       </c>
       <c r="V30" s="41" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="W30" s="51" t="s">
         <v>330</v>
@@ -6296,7 +6389,7 @@
         <v>324</v>
       </c>
       <c r="AC30" s="104" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="AG30" s="1" t="s">
         <v>175</v>
@@ -6370,7 +6463,7 @@
         <v>329</v>
       </c>
       <c r="AC31" s="64" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="32" spans="1:42" x14ac:dyDescent="0.15">
@@ -6403,7 +6496,7 @@
       <c r="V32" s="43"/>
       <c r="W32" s="53"/>
       <c r="AC32" s="104" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.15">
@@ -6441,11 +6534,11 @@
         <v>515</v>
       </c>
       <c r="V33" s="43" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="W33" s="53"/>
       <c r="AC33" s="64" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.15">
@@ -6467,7 +6560,7 @@
       <c r="O34" s="38"/>
       <c r="P34" s="10"/>
       <c r="Q34" s="43" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="R34" s="10"/>
       <c r="S34" s="38" t="s">
@@ -6478,11 +6571,11 @@
       </c>
       <c r="U34" s="8"/>
       <c r="V34" s="43" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="W34" s="53"/>
       <c r="AC34" s="104" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.15">
@@ -6513,11 +6606,11 @@
       </c>
       <c r="U35" s="8"/>
       <c r="V35" s="43" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="W35" s="53"/>
       <c r="AC35" s="64" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.15">
@@ -6548,11 +6641,11 @@
       </c>
       <c r="U36" s="8"/>
       <c r="V36" s="43" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="W36" s="53"/>
       <c r="AC36" s="104" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.15">
@@ -6583,11 +6676,11 @@
       </c>
       <c r="U37" s="8"/>
       <c r="V37" s="43" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="W37" s="53"/>
       <c r="AC37" s="64" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="AF37" s="1" t="s">
         <v>190</v>
@@ -6624,7 +6717,7 @@
       </c>
       <c r="U38" s="28"/>
       <c r="V38" s="44" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="W38" s="54" t="s">
         <v>333</v>
@@ -6633,7 +6726,7 @@
         <v>325</v>
       </c>
       <c r="AC38" s="104" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="AG38" s="1" t="s">
         <v>158</v>
@@ -6670,7 +6763,7 @@
       <c r="O39" s="40"/>
       <c r="P39" s="14"/>
       <c r="Q39" s="45" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="R39" s="14"/>
       <c r="S39" s="40" t="s">
@@ -6681,11 +6774,11 @@
       </c>
       <c r="U39" s="12"/>
       <c r="V39" s="45" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="W39" s="48"/>
       <c r="AC39" s="64" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="AH39" s="1" t="s">
         <v>192</v>
@@ -6722,11 +6815,11 @@
       </c>
       <c r="U40" s="5"/>
       <c r="V40" s="34" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="W40" s="49"/>
       <c r="AC40" s="104" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="AH40" s="1" t="s">
         <v>193</v>
@@ -6763,11 +6856,11 @@
       </c>
       <c r="U41" s="5"/>
       <c r="V41" s="34" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="W41" s="49"/>
       <c r="AC41" s="64" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="AH41" s="1" t="s">
         <v>194</v>
@@ -6807,7 +6900,7 @@
       </c>
       <c r="U42" s="5"/>
       <c r="V42" s="34" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="W42" s="49"/>
       <c r="AC42" s="104" t="s">
@@ -6848,7 +6941,7 @@
       </c>
       <c r="U43" s="5"/>
       <c r="V43" s="34" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="W43" s="49"/>
       <c r="AC43" s="64" t="s">
@@ -6883,7 +6976,7 @@
       </c>
       <c r="U44" s="5"/>
       <c r="V44" s="34" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="W44" s="49"/>
       <c r="AG44" s="1" t="s">
@@ -6924,7 +7017,7 @@
       </c>
       <c r="U45" s="5"/>
       <c r="V45" s="34" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="W45" s="49"/>
       <c r="AH45" s="1" t="s">
@@ -6956,7 +7049,7 @@
       <c r="O46" s="36"/>
       <c r="P46" s="20"/>
       <c r="Q46" s="41" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="R46" s="20"/>
       <c r="S46" s="36" t="s">
@@ -6969,7 +7062,7 @@
         <v>226</v>
       </c>
       <c r="V46" s="41" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="W46" s="51" t="s">
         <v>331</v>
@@ -7716,11 +7809,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD95"/>
+  <dimension ref="A1:AE95"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="265" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
+    <sheetView topLeftCell="J1" zoomScaleNormal="100" zoomScalePageLayoutView="265" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -7737,12 +7830,12 @@
     <col min="12" max="12" width="30.75" style="110" customWidth="1"/>
     <col min="13" max="13" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="54.25" style="110" customWidth="1"/>
-    <col min="15" max="15" width="17" style="110" customWidth="1"/>
-    <col min="16" max="16" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.875" style="1"/>
+    <col min="15" max="16" width="17" style="127" customWidth="1"/>
+    <col min="17" max="17" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="87" customFormat="1" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:29" s="87" customFormat="1" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A1" s="86" t="s">
         <v>388</v>
       </c>
@@ -7750,12 +7843,13 @@
       <c r="K1" s="106"/>
       <c r="L1" s="106"/>
       <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="Z1" s="89" t="s">
+      <c r="O1" s="119"/>
+      <c r="P1" s="119"/>
+      <c r="AA1" s="89" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:29" ht="21" x14ac:dyDescent="0.15">
       <c r="B2" s="65" t="s">
         <v>342</v>
       </c>
@@ -7778,26 +7872,29 @@
         <v>585</v>
       </c>
       <c r="L2" s="107" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="M2" s="92" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N2" s="107" t="s">
-        <v>680</v>
-      </c>
-      <c r="O2" s="107" t="s">
-        <v>780</v>
-      </c>
-      <c r="P2" s="92" t="s">
-        <v>755</v>
-      </c>
-      <c r="Q2" s="2"/>
-      <c r="Z2" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="O2" s="120" t="s">
+        <v>778</v>
+      </c>
+      <c r="P2" s="120" t="s">
+        <v>859</v>
+      </c>
+      <c r="Q2" s="92" t="s">
+        <v>753</v>
+      </c>
+      <c r="R2" s="2"/>
+      <c r="AA2" s="32" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="4" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:29" s="4" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>343</v>
       </c>
@@ -7811,73 +7908,79 @@
         <v>454</v>
       </c>
       <c r="H3" s="84" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="I3" s="64" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="J3" s="64" t="s">
+        <v>721</v>
+      </c>
+      <c r="K3" s="102" t="s">
         <v>722</v>
       </c>
-      <c r="K3" s="102" t="s">
+      <c r="L3" s="102" t="s">
         <v>723</v>
       </c>
-      <c r="L3" s="102" t="s">
-        <v>724</v>
-      </c>
       <c r="M3" s="64" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N3" s="102" t="s">
-        <v>729</v>
-      </c>
-      <c r="O3" s="102" t="s">
-        <v>767</v>
-      </c>
-      <c r="P3" s="64" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
+        <v>728</v>
+      </c>
+      <c r="O3" s="121" t="s">
+        <v>765</v>
+      </c>
+      <c r="P3" s="128" t="s">
+        <v>864</v>
+      </c>
+      <c r="Q3" s="64" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.15">
       <c r="C4" s="83" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D4" s="83" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H4" s="103" t="s">
         <v>448</v>
       </c>
       <c r="I4" s="104" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="J4" s="104"/>
       <c r="K4" s="105" t="s">
+        <v>657</v>
+      </c>
+      <c r="L4" s="105" t="s">
         <v>658</v>
       </c>
-      <c r="L4" s="105" t="s">
-        <v>659</v>
-      </c>
       <c r="M4" s="104" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="N4" s="105" t="s">
+        <v>754</v>
+      </c>
+      <c r="O4" s="122" t="s">
+        <v>766</v>
+      </c>
+      <c r="P4" s="129" t="s">
+        <v>863</v>
+      </c>
+      <c r="Q4" s="105" t="s">
         <v>756</v>
       </c>
-      <c r="O4" s="105" t="s">
-        <v>768</v>
-      </c>
-      <c r="P4" s="105" t="s">
-        <v>758</v>
-      </c>
-      <c r="Z4" s="32" t="s">
+      <c r="AA4" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AC4" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.15">
       <c r="C5" s="83" t="s">
         <v>354</v>
       </c>
@@ -7888,62 +7991,68 @@
         <v>448</v>
       </c>
       <c r="I5" s="64" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="J5" s="64" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="K5" s="102" t="s">
+        <v>659</v>
+      </c>
+      <c r="L5" s="102" t="s">
         <v>660</v>
       </c>
-      <c r="L5" s="102" t="s">
-        <v>661</v>
-      </c>
       <c r="M5" s="64" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="N5" s="102" t="s">
-        <v>681</v>
-      </c>
-      <c r="O5" s="102" t="s">
-        <v>769</v>
-      </c>
-      <c r="P5" s="64" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="66" x14ac:dyDescent="0.15">
+        <v>680</v>
+      </c>
+      <c r="O5" s="121" t="s">
+        <v>767</v>
+      </c>
+      <c r="P5" s="121" t="s">
+        <v>861</v>
+      </c>
+      <c r="Q5" s="64" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="66" x14ac:dyDescent="0.15">
       <c r="C6" s="83"/>
       <c r="D6" s="83"/>
       <c r="H6" s="103" t="s">
         <v>448</v>
       </c>
       <c r="I6" s="104" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="J6" s="104" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="K6" s="105" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="L6" s="105" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="M6" s="104" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="N6" s="105" t="s">
-        <v>733</v>
-      </c>
-      <c r="O6" s="105" t="s">
-        <v>770</v>
-      </c>
-      <c r="P6" s="105" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+        <v>732</v>
+      </c>
+      <c r="O6" s="122" t="s">
+        <v>768</v>
+      </c>
+      <c r="P6" s="129" t="s">
+        <v>863</v>
+      </c>
+      <c r="Q6" s="105" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="C7" s="4" t="s">
         <v>347</v>
       </c>
@@ -7954,7 +8063,7 @@
         <v>448</v>
       </c>
       <c r="I7" s="94" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="J7" s="94" t="s">
         <v>584</v>
@@ -7966,22 +8075,25 @@
         <v>595</v>
       </c>
       <c r="M7" s="94" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="N7" s="102" t="s">
-        <v>727</v>
-      </c>
-      <c r="O7" s="102" t="s">
-        <v>772</v>
-      </c>
-      <c r="P7" s="94" t="s">
-        <v>760</v>
-      </c>
-      <c r="AB7" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="O7" s="121" t="s">
+        <v>770</v>
+      </c>
+      <c r="P7" s="121" t="s">
+        <v>860</v>
+      </c>
+      <c r="Q7" s="94" t="s">
+        <v>758</v>
+      </c>
+      <c r="AC7" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="33" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:29" ht="33" x14ac:dyDescent="0.15">
       <c r="C8" s="83" t="s">
         <v>346</v>
       </c>
@@ -7995,7 +8107,7 @@
         <v>448</v>
       </c>
       <c r="I8" s="104" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J8" s="104"/>
       <c r="K8" s="105" t="s">
@@ -8005,22 +8117,25 @@
         <v>592</v>
       </c>
       <c r="M8" s="104" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="N8" s="105" t="s">
-        <v>726</v>
-      </c>
-      <c r="O8" s="105" t="s">
-        <v>771</v>
-      </c>
-      <c r="P8" s="105" t="s">
-        <v>760</v>
-      </c>
-      <c r="Z8" s="32" t="s">
+        <v>725</v>
+      </c>
+      <c r="O8" s="122" t="s">
+        <v>769</v>
+      </c>
+      <c r="P8" s="122" t="s">
+        <v>860</v>
+      </c>
+      <c r="Q8" s="105" t="s">
+        <v>758</v>
+      </c>
+      <c r="AA8" s="32" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="33" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:29" ht="33" x14ac:dyDescent="0.15">
       <c r="C9" s="83" t="s">
         <v>348</v>
       </c>
@@ -8031,7 +8146,7 @@
         <v>448</v>
       </c>
       <c r="I9" s="64" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="J9" s="64"/>
       <c r="K9" s="102" t="s">
@@ -8041,19 +8156,22 @@
         <v>594</v>
       </c>
       <c r="M9" s="64" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="N9" s="102" t="s">
-        <v>725</v>
-      </c>
-      <c r="O9" s="102" t="s">
-        <v>773</v>
-      </c>
-      <c r="P9" s="64" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" ht="33" x14ac:dyDescent="0.15">
+        <v>724</v>
+      </c>
+      <c r="O9" s="121" t="s">
+        <v>771</v>
+      </c>
+      <c r="P9" s="121" t="s">
+        <v>862</v>
+      </c>
+      <c r="Q9" s="64" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="33" x14ac:dyDescent="0.15">
       <c r="C10" s="83" t="s">
         <v>364</v>
       </c>
@@ -8067,7 +8185,7 @@
         <v>448</v>
       </c>
       <c r="I10" s="104" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="J10" s="104"/>
       <c r="K10" s="105" t="s">
@@ -8077,19 +8195,22 @@
         <v>597</v>
       </c>
       <c r="M10" s="104" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="N10" s="105" t="s">
-        <v>728</v>
-      </c>
-      <c r="O10" s="105" t="s">
-        <v>774</v>
-      </c>
-      <c r="P10" s="105" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" ht="33" x14ac:dyDescent="0.15">
+        <v>727</v>
+      </c>
+      <c r="O10" s="122" t="s">
+        <v>772</v>
+      </c>
+      <c r="P10" s="122" t="s">
+        <v>860</v>
+      </c>
+      <c r="Q10" s="105" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="33" x14ac:dyDescent="0.15">
       <c r="C11" s="83" t="s">
         <v>387</v>
       </c>
@@ -8097,64 +8218,70 @@
         <v>363</v>
       </c>
       <c r="H11" s="84" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="I11" s="64" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="J11" s="64" t="s">
         <v>633</v>
       </c>
       <c r="K11" s="102" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="L11" s="102" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="M11" s="64" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="N11" s="102" t="s">
-        <v>730</v>
-      </c>
-      <c r="O11" s="102" t="s">
-        <v>776</v>
-      </c>
-      <c r="P11" s="64" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" ht="33" x14ac:dyDescent="0.15">
+        <v>729</v>
+      </c>
+      <c r="O11" s="121" t="s">
+        <v>774</v>
+      </c>
+      <c r="P11" s="121" t="s">
+        <v>870</v>
+      </c>
+      <c r="Q11" s="64" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="33" x14ac:dyDescent="0.15">
       <c r="H12" s="103" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="I12" s="104" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="J12" s="104"/>
       <c r="K12" s="105" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="L12" s="105" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="M12" s="104" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="N12" s="105" t="s">
-        <v>730</v>
-      </c>
-      <c r="O12" s="105" t="s">
-        <v>777</v>
-      </c>
-      <c r="P12" s="105" t="s">
-        <v>759</v>
-      </c>
-      <c r="Z12" s="32" t="s">
+        <v>729</v>
+      </c>
+      <c r="O12" s="122" t="s">
+        <v>775</v>
+      </c>
+      <c r="P12" s="122" t="s">
+        <v>864</v>
+      </c>
+      <c r="Q12" s="105" t="s">
+        <v>757</v>
+      </c>
+      <c r="AA12" s="32" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="33" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:29" ht="33" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
         <v>369</v>
       </c>
@@ -8168,32 +8295,35 @@
         <v>642</v>
       </c>
       <c r="I13" s="64" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="J13" s="64"/>
       <c r="K13" s="102" t="s">
         <v>634</v>
       </c>
       <c r="L13" s="102" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="M13" s="64" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="N13" s="102" t="s">
-        <v>730</v>
-      </c>
-      <c r="O13" s="102" t="s">
-        <v>775</v>
-      </c>
-      <c r="P13" s="64" t="s">
-        <v>757</v>
-      </c>
-      <c r="Z13" s="32" t="s">
+        <v>729</v>
+      </c>
+      <c r="O13" s="121" t="s">
+        <v>773</v>
+      </c>
+      <c r="P13" s="121" t="s">
+        <v>872</v>
+      </c>
+      <c r="Q13" s="64" t="s">
+        <v>755</v>
+      </c>
+      <c r="AA13" s="32" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="33" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:29" ht="33" x14ac:dyDescent="0.15">
       <c r="C14" s="83" t="s">
         <v>372</v>
       </c>
@@ -8204,7 +8334,7 @@
         <v>642</v>
       </c>
       <c r="I14" s="104" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="J14" s="104" t="s">
         <v>635</v>
@@ -8213,22 +8343,25 @@
         <v>636</v>
       </c>
       <c r="L14" s="105" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="M14" s="104" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="N14" s="105" t="s">
-        <v>731</v>
-      </c>
-      <c r="O14" s="105" t="s">
-        <v>777</v>
-      </c>
-      <c r="P14" s="105" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="33" x14ac:dyDescent="0.15">
+        <v>730</v>
+      </c>
+      <c r="O14" s="122" t="s">
+        <v>775</v>
+      </c>
+      <c r="P14" s="122" t="s">
+        <v>871</v>
+      </c>
+      <c r="Q14" s="105" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="33" x14ac:dyDescent="0.15">
       <c r="C15" s="83" t="s">
         <v>375</v>
       </c>
@@ -8239,60 +8372,66 @@
         <v>642</v>
       </c>
       <c r="I15" s="64" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="J15" s="64"/>
       <c r="K15" s="102" t="s">
         <v>637</v>
       </c>
       <c r="L15" s="102" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="M15" s="64" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="N15" s="102" t="s">
-        <v>732</v>
-      </c>
-      <c r="O15" s="102" t="s">
-        <v>778</v>
-      </c>
-      <c r="P15" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="Z15" s="32" t="s">
+        <v>731</v>
+      </c>
+      <c r="O15" s="121" t="s">
+        <v>776</v>
+      </c>
+      <c r="P15" s="121" t="s">
+        <v>863</v>
+      </c>
+      <c r="Q15" s="64" t="s">
+        <v>757</v>
+      </c>
+      <c r="AA15" s="32" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="33" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:29" ht="33" x14ac:dyDescent="0.15">
       <c r="H16" s="103" t="s">
         <v>642</v>
       </c>
       <c r="I16" s="104" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="J16" s="104"/>
       <c r="K16" s="105" t="s">
         <v>638</v>
       </c>
       <c r="L16" s="105" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="M16" s="104" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="N16" s="105" t="s">
-        <v>732</v>
-      </c>
-      <c r="O16" s="105" t="s">
-        <v>777</v>
-      </c>
-      <c r="P16" s="105" t="s">
-        <v>757</v>
-      </c>
-      <c r="Z16" s="32"/>
-    </row>
-    <row r="17" spans="2:30" ht="33" x14ac:dyDescent="0.15">
+        <v>731</v>
+      </c>
+      <c r="O16" s="122" t="s">
+        <v>775</v>
+      </c>
+      <c r="P16" s="122" t="s">
+        <v>873</v>
+      </c>
+      <c r="Q16" s="105" t="s">
+        <v>755</v>
+      </c>
+      <c r="AA16" s="32"/>
+    </row>
+    <row r="17" spans="2:31" ht="33" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>366</v>
       </c>
@@ -8306,7 +8445,7 @@
         <v>609</v>
       </c>
       <c r="I17" s="64" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="J17" s="64" t="s">
         <v>598</v>
@@ -8318,20 +8457,23 @@
         <v>603</v>
       </c>
       <c r="M17" s="64" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="N17" s="102" t="s">
-        <v>734</v>
-      </c>
-      <c r="O17" s="102" t="s">
-        <v>776</v>
-      </c>
-      <c r="P17" s="64" t="s">
-        <v>763</v>
-      </c>
-      <c r="Z17" s="32"/>
-    </row>
-    <row r="18" spans="2:30" ht="33" x14ac:dyDescent="0.15">
+        <v>733</v>
+      </c>
+      <c r="O17" s="121" t="s">
+        <v>774</v>
+      </c>
+      <c r="P17" s="121" t="s">
+        <v>864</v>
+      </c>
+      <c r="Q17" s="64" t="s">
+        <v>761</v>
+      </c>
+      <c r="AA17" s="32"/>
+    </row>
+    <row r="18" spans="2:31" ht="33" x14ac:dyDescent="0.15">
       <c r="C18" s="83" t="s">
         <v>374</v>
       </c>
@@ -8342,7 +8484,7 @@
         <v>609</v>
       </c>
       <c r="I18" s="104" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="J18" s="104"/>
       <c r="K18" s="105" t="s">
@@ -8352,20 +8494,23 @@
         <v>604</v>
       </c>
       <c r="M18" s="104" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="N18" s="105" t="s">
-        <v>735</v>
-      </c>
-      <c r="O18" s="105" t="s">
-        <v>776</v>
-      </c>
-      <c r="P18" s="105" t="s">
-        <v>763</v>
-      </c>
-      <c r="Z18" s="32"/>
-    </row>
-    <row r="19" spans="2:30" ht="33" x14ac:dyDescent="0.15">
+        <v>734</v>
+      </c>
+      <c r="O18" s="122" t="s">
+        <v>774</v>
+      </c>
+      <c r="P18" s="122" t="s">
+        <v>864</v>
+      </c>
+      <c r="Q18" s="105" t="s">
+        <v>761</v>
+      </c>
+      <c r="AA18" s="32"/>
+    </row>
+    <row r="19" spans="2:31" ht="33" x14ac:dyDescent="0.15">
       <c r="C19" s="83" t="s">
         <v>376</v>
       </c>
@@ -8376,7 +8521,7 @@
         <v>609</v>
       </c>
       <c r="I19" s="64" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="J19" s="64"/>
       <c r="K19" s="102" t="s">
@@ -8386,20 +8531,23 @@
         <v>603</v>
       </c>
       <c r="M19" s="64" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="N19" s="102" t="s">
-        <v>734</v>
-      </c>
-      <c r="O19" s="102" t="s">
-        <v>776</v>
-      </c>
-      <c r="P19" s="64" t="s">
-        <v>763</v>
-      </c>
-      <c r="Z19" s="32"/>
-    </row>
-    <row r="20" spans="2:30" ht="33" x14ac:dyDescent="0.15">
+        <v>733</v>
+      </c>
+      <c r="O19" s="121" t="s">
+        <v>774</v>
+      </c>
+      <c r="P19" s="121" t="s">
+        <v>865</v>
+      </c>
+      <c r="Q19" s="64" t="s">
+        <v>761</v>
+      </c>
+      <c r="AA19" s="32"/>
+    </row>
+    <row r="20" spans="2:31" ht="33" x14ac:dyDescent="0.15">
       <c r="C20" s="1" t="s">
         <v>377</v>
       </c>
@@ -8410,7 +8558,7 @@
         <v>609</v>
       </c>
       <c r="I20" s="104" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="J20" s="104"/>
       <c r="K20" s="105" t="s">
@@ -8420,20 +8568,23 @@
         <v>604</v>
       </c>
       <c r="M20" s="104" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="N20" s="105" t="s">
-        <v>735</v>
-      </c>
-      <c r="O20" s="105" t="s">
-        <v>776</v>
-      </c>
-      <c r="P20" s="105" t="s">
-        <v>757</v>
-      </c>
-      <c r="Z20" s="32"/>
-    </row>
-    <row r="21" spans="2:30" ht="33" x14ac:dyDescent="0.15">
+        <v>734</v>
+      </c>
+      <c r="O20" s="122" t="s">
+        <v>774</v>
+      </c>
+      <c r="P20" s="122" t="s">
+        <v>867</v>
+      </c>
+      <c r="Q20" s="105" t="s">
+        <v>755</v>
+      </c>
+      <c r="AA20" s="32"/>
+    </row>
+    <row r="21" spans="2:31" ht="33" x14ac:dyDescent="0.15">
       <c r="C21" s="1" t="s">
         <v>378</v>
       </c>
@@ -8444,7 +8595,7 @@
         <v>609</v>
       </c>
       <c r="I21" s="64" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="J21" s="64" t="s">
         <v>605</v>
@@ -8456,33 +8607,36 @@
         <v>606</v>
       </c>
       <c r="M21" s="64" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N21" s="102" t="s">
-        <v>736</v>
-      </c>
-      <c r="O21" s="102" t="s">
-        <v>777</v>
-      </c>
-      <c r="P21" s="64" t="s">
-        <v>764</v>
-      </c>
-      <c r="Z21" s="32" t="s">
+        <v>735</v>
+      </c>
+      <c r="O21" s="121" t="s">
+        <v>775</v>
+      </c>
+      <c r="P21" s="121" t="s">
+        <v>866</v>
+      </c>
+      <c r="Q21" s="64" t="s">
+        <v>762</v>
+      </c>
+      <c r="AA21" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="AB21" s="1" t="s">
+      <c r="AC21" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AD21" s="1" t="s">
+      <c r="AE21" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="2:30" ht="33" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:31" ht="33" x14ac:dyDescent="0.15">
       <c r="H22" s="103" t="s">
         <v>609</v>
       </c>
       <c r="I22" s="104" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="J22" s="104"/>
       <c r="K22" s="105" t="s">
@@ -8492,26 +8646,29 @@
         <v>606</v>
       </c>
       <c r="M22" s="104" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N22" s="105" t="s">
-        <v>737</v>
-      </c>
-      <c r="O22" s="105" t="s">
-        <v>775</v>
-      </c>
-      <c r="P22" s="105" t="s">
-        <v>765</v>
-      </c>
-      <c r="Z22" s="32"/>
-      <c r="AB22" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="O22" s="122" t="s">
+        <v>773</v>
+      </c>
+      <c r="P22" s="122" t="s">
+        <v>868</v>
+      </c>
+      <c r="Q22" s="105" t="s">
+        <v>763</v>
+      </c>
+      <c r="AA22" s="32"/>
+      <c r="AC22" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AD22" s="1" t="s">
+      <c r="AE22" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="2:30" ht="33" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:31" ht="33" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
         <v>447</v>
       </c>
@@ -8519,7 +8676,7 @@
         <v>609</v>
       </c>
       <c r="I23" s="64" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="J23" s="64" t="s">
         <v>610</v>
@@ -8531,22 +8688,25 @@
         <v>613</v>
       </c>
       <c r="M23" s="64" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="N23" s="102" t="s">
-        <v>683</v>
-      </c>
-      <c r="O23" s="102" t="s">
-        <v>779</v>
-      </c>
-      <c r="P23" s="64" t="s">
-        <v>764</v>
-      </c>
-      <c r="Z23" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="O23" s="121" t="s">
+        <v>777</v>
+      </c>
+      <c r="P23" s="121" t="s">
+        <v>868</v>
+      </c>
+      <c r="Q23" s="64" t="s">
+        <v>762</v>
+      </c>
+      <c r="AA23" s="32" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="2:30" ht="33" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:31" ht="33" x14ac:dyDescent="0.15">
       <c r="B24" s="32" t="s">
         <v>448</v>
       </c>
@@ -8560,7 +8720,7 @@
         <v>609</v>
       </c>
       <c r="I24" s="104" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="J24" s="104" t="s">
         <v>94</v>
@@ -8572,20 +8732,23 @@
         <v>614</v>
       </c>
       <c r="M24" s="104" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="N24" s="105" t="s">
-        <v>683</v>
-      </c>
-      <c r="O24" s="105" t="s">
-        <v>779</v>
-      </c>
-      <c r="P24" s="105" t="s">
-        <v>766</v>
-      </c>
-      <c r="Z24" s="32"/>
-    </row>
-    <row r="25" spans="2:30" x14ac:dyDescent="0.15">
+        <v>682</v>
+      </c>
+      <c r="O24" s="122" t="s">
+        <v>777</v>
+      </c>
+      <c r="P24" s="122" t="s">
+        <v>866</v>
+      </c>
+      <c r="Q24" s="105" t="s">
+        <v>764</v>
+      </c>
+      <c r="AA24" s="32"/>
+    </row>
+    <row r="25" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B25" s="32"/>
       <c r="C25" s="83" t="s">
         <v>457</v>
@@ -8594,35 +8757,38 @@
         <v>458</v>
       </c>
       <c r="H25" s="84" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="I25" s="64" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="J25" s="64" t="s">
         <v>583</v>
       </c>
       <c r="K25" s="102" t="s">
+        <v>698</v>
+      </c>
+      <c r="L25" s="102" t="s">
         <v>699</v>
       </c>
-      <c r="L25" s="102" t="s">
-        <v>700</v>
-      </c>
       <c r="M25" s="64" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="N25" s="102" t="s">
-        <v>738</v>
-      </c>
-      <c r="O25" s="102" t="s">
-        <v>777</v>
-      </c>
-      <c r="P25" s="64" t="s">
-        <v>760</v>
-      </c>
-      <c r="Z25" s="32"/>
-    </row>
-    <row r="26" spans="2:30" x14ac:dyDescent="0.15">
+        <v>737</v>
+      </c>
+      <c r="O25" s="121" t="s">
+        <v>775</v>
+      </c>
+      <c r="P25" s="121" t="s">
+        <v>864</v>
+      </c>
+      <c r="Q25" s="64" t="s">
+        <v>758</v>
+      </c>
+      <c r="AA25" s="32"/>
+    </row>
+    <row r="26" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B26" s="32"/>
       <c r="C26" s="1" t="s">
         <v>464</v>
@@ -8634,7 +8800,7 @@
         <v>214</v>
       </c>
       <c r="I26" s="104" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="J26" s="104"/>
       <c r="K26" s="105" t="s">
@@ -8644,52 +8810,58 @@
         <v>587</v>
       </c>
       <c r="M26" s="104" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="N26" s="105" t="s">
-        <v>739</v>
-      </c>
-      <c r="O26" s="105" t="s">
-        <v>785</v>
-      </c>
-      <c r="P26" s="105" t="s">
-        <v>760</v>
-      </c>
-      <c r="Z26" s="32"/>
-    </row>
-    <row r="27" spans="2:30" ht="33" x14ac:dyDescent="0.15">
+        <v>738</v>
+      </c>
+      <c r="O26" s="122" t="s">
+        <v>783</v>
+      </c>
+      <c r="P26" s="122" t="s">
+        <v>863</v>
+      </c>
+      <c r="Q26" s="105" t="s">
+        <v>758</v>
+      </c>
+      <c r="AA26" s="32"/>
+    </row>
+    <row r="27" spans="2:31" ht="33" x14ac:dyDescent="0.15">
       <c r="B27" s="32"/>
       <c r="D27" s="1" t="s">
         <v>460</v>
       </c>
       <c r="H27" s="84" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="I27" s="64" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="J27" s="64"/>
       <c r="K27" s="102" t="s">
+        <v>700</v>
+      </c>
+      <c r="L27" s="102" t="s">
         <v>701</v>
       </c>
-      <c r="L27" s="102" t="s">
+      <c r="M27" s="64" t="s">
+        <v>672</v>
+      </c>
+      <c r="N27" s="102" t="s">
         <v>702</v>
       </c>
-      <c r="M27" s="64" t="s">
-        <v>673</v>
-      </c>
-      <c r="N27" s="102" t="s">
-        <v>703</v>
-      </c>
-      <c r="O27" s="102" t="s">
-        <v>779</v>
-      </c>
-      <c r="P27" s="64" t="s">
-        <v>765</v>
-      </c>
-      <c r="Z27" s="32"/>
-    </row>
-    <row r="28" spans="2:30" ht="33" x14ac:dyDescent="0.15">
+      <c r="O27" s="121" t="s">
+        <v>777</v>
+      </c>
+      <c r="P27" s="121" t="s">
+        <v>863</v>
+      </c>
+      <c r="Q27" s="64" t="s">
+        <v>763</v>
+      </c>
+      <c r="AA27" s="32"/>
+    </row>
+    <row r="28" spans="2:31" ht="33" x14ac:dyDescent="0.15">
       <c r="B28" s="32"/>
       <c r="D28" s="1" t="s">
         <v>461</v>
@@ -8698,7 +8870,7 @@
         <v>214</v>
       </c>
       <c r="I28" s="104" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J28" s="104"/>
       <c r="K28" s="105" t="s">
@@ -8708,20 +8880,23 @@
         <v>589</v>
       </c>
       <c r="M28" s="104" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="N28" s="105" t="s">
-        <v>740</v>
-      </c>
-      <c r="O28" s="105" t="s">
-        <v>781</v>
-      </c>
-      <c r="P28" s="105" t="s">
-        <v>759</v>
-      </c>
-      <c r="Z28" s="32"/>
-    </row>
-    <row r="29" spans="2:30" ht="33" x14ac:dyDescent="0.15">
+        <v>739</v>
+      </c>
+      <c r="O28" s="122" t="s">
+        <v>779</v>
+      </c>
+      <c r="P28" s="122" t="s">
+        <v>863</v>
+      </c>
+      <c r="Q28" s="105" t="s">
+        <v>757</v>
+      </c>
+      <c r="AA28" s="32"/>
+    </row>
+    <row r="29" spans="2:31" ht="33" x14ac:dyDescent="0.15">
       <c r="B29" s="32"/>
       <c r="C29" s="83" t="s">
         <v>462</v>
@@ -8730,122 +8905,134 @@
         <v>463</v>
       </c>
       <c r="H29" s="84" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="I29" s="64" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="J29" s="64"/>
       <c r="K29" s="102" t="s">
+        <v>703</v>
+      </c>
+      <c r="L29" s="102" t="s">
         <v>704</v>
       </c>
-      <c r="L29" s="102" t="s">
-        <v>705</v>
-      </c>
       <c r="M29" s="64" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="N29" s="102" t="s">
-        <v>741</v>
-      </c>
-      <c r="O29" s="102" t="s">
-        <v>782</v>
-      </c>
-      <c r="P29" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="Z29" s="32"/>
-    </row>
-    <row r="30" spans="2:30" ht="33" x14ac:dyDescent="0.15">
+        <v>740</v>
+      </c>
+      <c r="O29" s="121" t="s">
+        <v>780</v>
+      </c>
+      <c r="P29" s="121" t="s">
+        <v>863</v>
+      </c>
+      <c r="Q29" s="64" t="s">
+        <v>757</v>
+      </c>
+      <c r="AA29" s="32"/>
+    </row>
+    <row r="30" spans="2:31" ht="33" x14ac:dyDescent="0.15">
       <c r="B30" s="32"/>
       <c r="H30" s="103" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="I30" s="104" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="J30" s="104"/>
       <c r="K30" s="105" t="s">
+        <v>745</v>
+      </c>
+      <c r="L30" s="105" t="s">
         <v>746</v>
       </c>
-      <c r="L30" s="105" t="s">
+      <c r="M30" s="104" t="s">
         <v>747</v>
       </c>
-      <c r="M30" s="104" t="s">
+      <c r="N30" s="105" t="s">
         <v>748</v>
       </c>
-      <c r="N30" s="105" t="s">
-        <v>749</v>
-      </c>
-      <c r="O30" s="105" t="s">
-        <v>781</v>
-      </c>
-      <c r="P30" s="105" t="s">
-        <v>759</v>
-      </c>
-      <c r="Z30" s="32"/>
-    </row>
-    <row r="31" spans="2:30" ht="33" x14ac:dyDescent="0.15">
+      <c r="O30" s="122" t="s">
+        <v>779</v>
+      </c>
+      <c r="P30" s="122" t="s">
+        <v>863</v>
+      </c>
+      <c r="Q30" s="105" t="s">
+        <v>757</v>
+      </c>
+      <c r="AA30" s="32"/>
+    </row>
+    <row r="31" spans="2:31" ht="33" x14ac:dyDescent="0.15">
       <c r="B31" s="32"/>
       <c r="C31" s="83"/>
       <c r="D31" s="83"/>
       <c r="H31" s="84" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="I31" s="64" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="J31" s="64"/>
       <c r="K31" s="102" t="s">
+        <v>741</v>
+      </c>
+      <c r="L31" s="102" t="s">
         <v>742</v>
       </c>
-      <c r="L31" s="102" t="s">
+      <c r="M31" s="64" t="s">
+        <v>712</v>
+      </c>
+      <c r="N31" s="102" t="s">
         <v>743</v>
       </c>
-      <c r="M31" s="64" t="s">
-        <v>713</v>
-      </c>
-      <c r="N31" s="102" t="s">
-        <v>744</v>
-      </c>
-      <c r="O31" s="102" t="s">
-        <v>786</v>
-      </c>
-      <c r="P31" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="Z31" s="32"/>
-    </row>
-    <row r="32" spans="2:30" ht="33" x14ac:dyDescent="0.15">
+      <c r="O31" s="121" t="s">
+        <v>784</v>
+      </c>
+      <c r="P31" s="121" t="s">
+        <v>864</v>
+      </c>
+      <c r="Q31" s="64" t="s">
+        <v>757</v>
+      </c>
+      <c r="AA31" s="32"/>
+    </row>
+    <row r="32" spans="2:31" ht="33" x14ac:dyDescent="0.15">
       <c r="B32" s="32"/>
       <c r="H32" s="103" t="s">
         <v>214</v>
       </c>
       <c r="I32" s="104" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="J32" s="104"/>
       <c r="K32" s="105" t="s">
+        <v>857</v>
+      </c>
+      <c r="L32" s="105" t="s">
+        <v>858</v>
+      </c>
+      <c r="M32" s="104" t="s">
+        <v>672</v>
+      </c>
+      <c r="N32" s="105" t="s">
         <v>750</v>
       </c>
-      <c r="L32" s="105" t="s">
-        <v>647</v>
-      </c>
-      <c r="M32" s="104" t="s">
-        <v>673</v>
-      </c>
-      <c r="N32" s="105" t="s">
-        <v>752</v>
-      </c>
-      <c r="O32" s="105" t="s">
-        <v>783</v>
-      </c>
-      <c r="P32" s="105" t="s">
-        <v>759</v>
-      </c>
-      <c r="Z32" s="32"/>
-    </row>
-    <row r="33" spans="2:28" ht="33" x14ac:dyDescent="0.15">
+      <c r="O32" s="122" t="s">
+        <v>781</v>
+      </c>
+      <c r="P32" s="122" t="s">
+        <v>863</v>
+      </c>
+      <c r="Q32" s="105" t="s">
+        <v>757</v>
+      </c>
+      <c r="AA32" s="32"/>
+    </row>
+    <row r="33" spans="2:29" ht="33" x14ac:dyDescent="0.15">
       <c r="B33" s="32" t="s">
         <v>449</v>
       </c>
@@ -8856,33 +9043,36 @@
         <v>381</v>
       </c>
       <c r="H33" s="84" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="I33" s="64" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="J33" s="64"/>
       <c r="K33" s="102" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="L33" s="102" t="s">
+        <v>705</v>
+      </c>
+      <c r="M33" s="64" t="s">
+        <v>672</v>
+      </c>
+      <c r="N33" s="102" t="s">
         <v>706</v>
       </c>
-      <c r="M33" s="64" t="s">
-        <v>673</v>
-      </c>
-      <c r="N33" s="102" t="s">
-        <v>707</v>
-      </c>
-      <c r="O33" s="102" t="s">
-        <v>784</v>
-      </c>
-      <c r="P33" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="Z33" s="32"/>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="O33" s="121" t="s">
+        <v>782</v>
+      </c>
+      <c r="P33" s="121" t="s">
+        <v>869</v>
+      </c>
+      <c r="Q33" s="64" t="s">
+        <v>757</v>
+      </c>
+      <c r="AA33" s="32"/>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B34" s="32"/>
       <c r="C34" s="83"/>
       <c r="D34" s="83" t="s">
@@ -8892,7 +9082,7 @@
         <v>214</v>
       </c>
       <c r="I34" s="104" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="J34" s="104" t="s">
         <v>639</v>
@@ -8904,20 +9094,23 @@
         <v>641</v>
       </c>
       <c r="M34" s="104" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="N34" s="105" t="s">
-        <v>686</v>
-      </c>
-      <c r="O34" s="105" t="s">
-        <v>785</v>
-      </c>
-      <c r="P34" s="105" t="s">
-        <v>763</v>
-      </c>
-      <c r="Z34" s="32"/>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.15">
+        <v>685</v>
+      </c>
+      <c r="O34" s="122" t="s">
+        <v>783</v>
+      </c>
+      <c r="P34" s="122" t="s">
+        <v>866</v>
+      </c>
+      <c r="Q34" s="105" t="s">
+        <v>761</v>
+      </c>
+      <c r="AA34" s="32"/>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B35" s="32"/>
       <c r="C35" s="83" t="s">
         <v>380</v>
@@ -8926,33 +9119,36 @@
         <v>382</v>
       </c>
       <c r="H35" s="84" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="I35" s="64" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="J35" s="64"/>
       <c r="K35" s="102" t="s">
+        <v>707</v>
+      </c>
+      <c r="L35" s="102" t="s">
         <v>708</v>
       </c>
-      <c r="L35" s="102" t="s">
+      <c r="M35" s="64" t="s">
+        <v>672</v>
+      </c>
+      <c r="N35" s="102" t="s">
         <v>709</v>
       </c>
-      <c r="M35" s="64" t="s">
-        <v>673</v>
-      </c>
-      <c r="N35" s="102" t="s">
-        <v>710</v>
-      </c>
-      <c r="O35" s="102" t="s">
-        <v>785</v>
-      </c>
-      <c r="P35" s="64" t="s">
-        <v>763</v>
-      </c>
-      <c r="Z35" s="32"/>
-    </row>
-    <row r="36" spans="2:28" ht="33" x14ac:dyDescent="0.15">
+      <c r="O35" s="121" t="s">
+        <v>783</v>
+      </c>
+      <c r="P35" s="121" t="s">
+        <v>866</v>
+      </c>
+      <c r="Q35" s="64" t="s">
+        <v>761</v>
+      </c>
+      <c r="AA35" s="32"/>
+    </row>
+    <row r="36" spans="2:29" ht="33" x14ac:dyDescent="0.15">
       <c r="B36" s="32"/>
       <c r="C36" s="83"/>
       <c r="D36" s="83"/>
@@ -8960,61 +9156,67 @@
         <v>214</v>
       </c>
       <c r="I36" s="104" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="J36" s="104"/>
       <c r="K36" s="105" t="s">
+        <v>673</v>
+      </c>
+      <c r="L36" s="105" t="s">
         <v>674</v>
       </c>
-      <c r="L36" s="105" t="s">
-        <v>675</v>
-      </c>
       <c r="M36" s="104" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="N36" s="105" t="s">
-        <v>685</v>
-      </c>
-      <c r="O36" s="105" t="s">
-        <v>787</v>
-      </c>
-      <c r="P36" s="105" t="s">
-        <v>763</v>
-      </c>
-      <c r="Z36" s="32"/>
-    </row>
-    <row r="37" spans="2:28" ht="33" x14ac:dyDescent="0.15">
+        <v>684</v>
+      </c>
+      <c r="O36" s="122" t="s">
+        <v>785</v>
+      </c>
+      <c r="P36" s="122" t="s">
+        <v>865</v>
+      </c>
+      <c r="Q36" s="105" t="s">
+        <v>761</v>
+      </c>
+      <c r="AA36" s="32"/>
+    </row>
+    <row r="37" spans="2:29" ht="33" x14ac:dyDescent="0.15">
       <c r="B37" s="32"/>
       <c r="C37" s="83"/>
       <c r="D37" s="83"/>
       <c r="H37" s="84" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="I37" s="64" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="J37" s="64"/>
       <c r="K37" s="102" t="s">
+        <v>710</v>
+      </c>
+      <c r="L37" s="102" t="s">
         <v>711</v>
       </c>
-      <c r="L37" s="102" t="s">
-        <v>712</v>
-      </c>
       <c r="M37" s="64" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="N37" s="102" t="s">
-        <v>685</v>
-      </c>
-      <c r="O37" s="102" t="s">
-        <v>786</v>
-      </c>
-      <c r="P37" s="64" t="s">
-        <v>763</v>
-      </c>
-      <c r="Z37" s="32"/>
-    </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.15">
+        <v>684</v>
+      </c>
+      <c r="O37" s="121" t="s">
+        <v>784</v>
+      </c>
+      <c r="P37" s="121" t="s">
+        <v>868</v>
+      </c>
+      <c r="Q37" s="64" t="s">
+        <v>761</v>
+      </c>
+      <c r="AA37" s="32"/>
+    </row>
+    <row r="38" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B38" s="32"/>
       <c r="C38" s="83"/>
       <c r="D38" s="83" t="s">
@@ -9037,52 +9239,56 @@
       </c>
       <c r="M38" s="104"/>
       <c r="N38" s="105" t="s">
-        <v>684</v>
-      </c>
-      <c r="O38" s="105" t="s">
-        <v>779</v>
-      </c>
-      <c r="P38" s="105" t="s">
-        <v>762</v>
-      </c>
-      <c r="Z38" s="32"/>
-    </row>
-    <row r="39" spans="2:28" ht="33" x14ac:dyDescent="0.15">
+        <v>683</v>
+      </c>
+      <c r="O38" s="122" t="s">
+        <v>777</v>
+      </c>
+      <c r="P38" s="122"/>
+      <c r="Q38" s="105" t="s">
+        <v>760</v>
+      </c>
+      <c r="AA38" s="32"/>
+    </row>
+    <row r="39" spans="2:29" ht="33" x14ac:dyDescent="0.15">
       <c r="B39" s="32"/>
       <c r="C39" s="83" t="s">
         <v>465</v>
       </c>
       <c r="D39" s="83"/>
       <c r="H39" s="84" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I39" s="64" t="s">
+        <v>647</v>
+      </c>
+      <c r="J39" s="64" t="s">
         <v>648</v>
       </c>
-      <c r="J39" s="64" t="s">
+      <c r="K39" s="102" t="s">
         <v>649</v>
       </c>
-      <c r="K39" s="102" t="s">
-        <v>650</v>
-      </c>
       <c r="L39" s="102" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="M39" s="64" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N39" s="102" t="s">
-        <v>753</v>
-      </c>
-      <c r="O39" s="102" t="s">
-        <v>786</v>
-      </c>
-      <c r="P39" s="64" t="s">
-        <v>763</v>
-      </c>
-      <c r="Z39" s="32"/>
-    </row>
-    <row r="40" spans="2:28" s="114" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+        <v>751</v>
+      </c>
+      <c r="O39" s="121" t="s">
+        <v>784</v>
+      </c>
+      <c r="P39" s="121" t="s">
+        <v>866</v>
+      </c>
+      <c r="Q39" s="64" t="s">
+        <v>761</v>
+      </c>
+      <c r="AA39" s="32"/>
+    </row>
+    <row r="40" spans="2:29" s="114" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
       <c r="C40" s="114" t="s">
         <v>466</v>
       </c>
@@ -9095,58 +9301,61 @@
       <c r="I40" s="116"/>
       <c r="J40" s="116"/>
       <c r="K40" s="117" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L40" s="117" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="M40" s="116" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N40" s="117" t="s">
-        <v>754</v>
-      </c>
-      <c r="O40" s="117"/>
-      <c r="P40" s="117" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="41" spans="2:28" s="96" customFormat="1" x14ac:dyDescent="0.15">
+        <v>752</v>
+      </c>
+      <c r="O40" s="123"/>
+      <c r="P40" s="123"/>
+      <c r="Q40" s="117" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="41" spans="2:29" s="96" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D41" s="96" t="s">
         <v>468</v>
       </c>
       <c r="H41" s="98" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I41" s="99"/>
       <c r="J41" s="99"/>
       <c r="K41" s="108" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="L41" s="108"/>
       <c r="M41" s="99"/>
       <c r="N41" s="108"/>
-      <c r="O41" s="108"/>
-      <c r="P41" s="99"/>
-    </row>
-    <row r="42" spans="2:28" s="96" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="O41" s="124"/>
+      <c r="P41" s="124"/>
+      <c r="Q41" s="99"/>
+    </row>
+    <row r="42" spans="2:29" s="96" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="H42" s="98" t="s">
         <v>448</v>
       </c>
       <c r="I42" s="99"/>
       <c r="J42" s="99" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="K42" s="108" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="L42" s="108"/>
       <c r="M42" s="99"/>
       <c r="N42" s="108"/>
-      <c r="O42" s="108"/>
-      <c r="P42" s="99"/>
-    </row>
-    <row r="43" spans="2:28" s="96" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O42" s="124"/>
+      <c r="P42" s="124"/>
+      <c r="Q42" s="99"/>
+    </row>
+    <row r="43" spans="2:29" s="96" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B43" s="96" t="s">
         <v>344</v>
       </c>
@@ -9164,24 +9373,25 @@
       </c>
       <c r="I43" s="99"/>
       <c r="J43" s="99" t="s">
+        <v>664</v>
+      </c>
+      <c r="K43" s="108" t="s">
         <v>665</v>
-      </c>
-      <c r="K43" s="108" t="s">
-        <v>666</v>
       </c>
       <c r="L43" s="108"/>
       <c r="M43" s="99"/>
       <c r="N43" s="108"/>
-      <c r="O43" s="108"/>
-      <c r="P43" s="99"/>
-      <c r="Z43" s="96" t="s">
+      <c r="O43" s="124"/>
+      <c r="P43" s="124"/>
+      <c r="Q43" s="99"/>
+      <c r="AA43" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="AB43" s="96" t="s">
+      <c r="AC43" s="96" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B44" s="32" t="s">
         <v>450</v>
       </c>
@@ -9201,14 +9411,15 @@
         <v>620</v>
       </c>
       <c r="M44" s="101" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="N44" s="109"/>
-      <c r="O44" s="109"/>
-      <c r="P44" s="101"/>
-      <c r="Z44" s="32"/>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="O44" s="125"/>
+      <c r="P44" s="125"/>
+      <c r="Q44" s="101"/>
+      <c r="AA44" s="32"/>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B45" s="32"/>
       <c r="H45" s="100" t="s">
         <v>576</v>
@@ -9222,14 +9433,15 @@
         <v>620</v>
       </c>
       <c r="M45" s="101" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="N45" s="109"/>
-      <c r="O45" s="109"/>
-      <c r="P45" s="101"/>
-      <c r="Z45" s="32"/>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="O45" s="125"/>
+      <c r="P45" s="125"/>
+      <c r="Q45" s="101"/>
+      <c r="AA45" s="32"/>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B46" s="32" t="s">
         <v>451</v>
       </c>
@@ -9253,14 +9465,15 @@
         <v>621</v>
       </c>
       <c r="M46" s="101" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="N46" s="109"/>
-      <c r="O46" s="109"/>
-      <c r="P46" s="101"/>
-      <c r="Z46" s="32"/>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="O46" s="125"/>
+      <c r="P46" s="125"/>
+      <c r="Q46" s="101"/>
+      <c r="AA46" s="32"/>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B47" s="32"/>
       <c r="C47" s="83" t="s">
         <v>471</v>
@@ -9280,14 +9493,15 @@
         <v>621</v>
       </c>
       <c r="M47" s="101" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="N47" s="109"/>
-      <c r="O47" s="109"/>
-      <c r="P47" s="101"/>
-      <c r="Z47" s="32"/>
-    </row>
-    <row r="48" spans="2:28" ht="33" x14ac:dyDescent="0.15">
+      <c r="O47" s="125"/>
+      <c r="P47" s="125"/>
+      <c r="Q47" s="101"/>
+      <c r="AA47" s="32"/>
+    </row>
+    <row r="48" spans="2:29" ht="33" x14ac:dyDescent="0.15">
       <c r="B48" s="32"/>
       <c r="C48" s="83" t="s">
         <v>472</v>
@@ -9309,14 +9523,15 @@
         <v>626</v>
       </c>
       <c r="M48" s="101" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="N48" s="109"/>
-      <c r="O48" s="109"/>
-      <c r="P48" s="101"/>
-      <c r="Z48" s="32"/>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="O48" s="125"/>
+      <c r="P48" s="125"/>
+      <c r="Q48" s="101"/>
+      <c r="AA48" s="32"/>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B49" s="32"/>
       <c r="C49" s="83" t="s">
         <v>475</v>
@@ -9338,14 +9553,15 @@
         <v>628</v>
       </c>
       <c r="M49" s="101" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="N49" s="109"/>
-      <c r="O49" s="109"/>
-      <c r="P49" s="101"/>
-      <c r="Z49" s="32"/>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="O49" s="125"/>
+      <c r="P49" s="125"/>
+      <c r="Q49" s="101"/>
+      <c r="AA49" s="32"/>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B50" s="32"/>
       <c r="H50" s="100" t="s">
         <v>576</v>
@@ -9361,14 +9577,15 @@
         <v>632</v>
       </c>
       <c r="M50" s="101" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="N50" s="109"/>
-      <c r="O50" s="109"/>
-      <c r="P50" s="101"/>
-      <c r="Z50" s="32"/>
-    </row>
-    <row r="51" spans="1:29" s="96" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O50" s="125"/>
+      <c r="P50" s="125"/>
+      <c r="Q50" s="101"/>
+      <c r="AA50" s="32"/>
+    </row>
+    <row r="51" spans="1:30" s="96" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C51" s="96" t="s">
         <v>357</v>
       </c>
@@ -9382,52 +9599,54 @@
         <v>448</v>
       </c>
       <c r="I51" s="99" t="s">
+        <v>661</v>
+      </c>
+      <c r="J51" s="99" t="s">
         <v>662</v>
       </c>
-      <c r="J51" s="99" t="s">
-        <v>663</v>
-      </c>
       <c r="K51" s="108" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="L51" s="102"/>
       <c r="M51" s="64"/>
       <c r="N51" s="102"/>
-      <c r="O51" s="102"/>
-      <c r="P51" s="64"/>
-      <c r="Z51" s="96" t="s">
+      <c r="O51" s="121"/>
+      <c r="P51" s="121"/>
+      <c r="Q51" s="64"/>
+      <c r="AA51" s="96" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:29" s="96" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:30" s="96" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H52" s="98" t="s">
         <v>448</v>
       </c>
       <c r="I52" s="99" t="s">
+        <v>691</v>
+      </c>
+      <c r="J52" s="99" t="s">
         <v>692</v>
       </c>
-      <c r="J52" s="99" t="s">
-        <v>693</v>
-      </c>
       <c r="K52" s="108" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="L52" s="108" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="M52" s="99" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="N52" s="108" t="s">
-        <v>682</v>
-      </c>
-      <c r="O52" s="108"/>
-      <c r="P52" s="99"/>
-      <c r="Z52" s="96" t="s">
+        <v>681</v>
+      </c>
+      <c r="O52" s="124"/>
+      <c r="P52" s="124"/>
+      <c r="Q52" s="99"/>
+      <c r="AA52" s="96" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:29" s="96" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:30" s="96" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="96" t="s">
         <v>351</v>
       </c>
@@ -9446,27 +9665,28 @@
       <c r="I53" s="112"/>
       <c r="J53" s="112"/>
       <c r="K53" s="113" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="L53" s="113" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="M53" s="112" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="N53" s="113" t="s">
-        <v>694</v>
-      </c>
-      <c r="O53" s="113"/>
-      <c r="P53" s="113"/>
-      <c r="Z53" s="96" t="s">
+        <v>693</v>
+      </c>
+      <c r="O53" s="126"/>
+      <c r="P53" s="126"/>
+      <c r="Q53" s="113"/>
+      <c r="AA53" s="96" t="s">
         <v>91</v>
       </c>
-      <c r="AB53" s="96" t="s">
+      <c r="AC53" s="96" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="54" spans="1:29" s="87" customFormat="1" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:30" s="87" customFormat="1" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A54" s="86" t="s">
         <v>389</v>
       </c>
@@ -9474,12 +9694,13 @@
       <c r="K54" s="106"/>
       <c r="L54" s="106"/>
       <c r="N54" s="106"/>
-      <c r="O54" s="106"/>
-      <c r="Z54" s="90" t="s">
+      <c r="O54" s="119"/>
+      <c r="P54" s="119"/>
+      <c r="AA54" s="90" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="1:29" ht="21" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:30" ht="21" x14ac:dyDescent="0.15">
       <c r="B55" s="65" t="s">
         <v>342</v>
       </c>
@@ -9489,11 +9710,11 @@
       <c r="D55" s="65" t="s">
         <v>391</v>
       </c>
-      <c r="Z55" s="32" t="s">
+      <c r="AA55" s="32" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B56" s="1" t="s">
         <v>392</v>
       </c>
@@ -9504,7 +9725,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C57" s="1" t="s">
         <v>397</v>
       </c>
@@ -9512,7 +9733,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C58" s="1" t="s">
         <v>398</v>
       </c>
@@ -9520,18 +9741,18 @@
         <v>395</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C59" s="1" t="s">
         <v>399</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="Z59" s="63" t="s">
+      <c r="AA59" s="63" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C60" s="1" t="s">
         <v>401</v>
       </c>
@@ -9539,24 +9760,24 @@
         <v>402</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C61" s="1" t="s">
         <v>403</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="Z61" s="66" t="s">
+      <c r="AA61" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="AB61" s="1" t="s">
+      <c r="AC61" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AC61" s="1" t="s">
+      <c r="AD61" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B63" s="1" t="s">
         <v>405</v>
       </c>
@@ -9566,17 +9787,17 @@
       <c r="D63" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="Z63" s="66" t="s">
+      <c r="AA63" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="AB63" s="1" t="s">
+      <c r="AC63" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AC63" s="1" t="s">
+      <c r="AD63" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C64" s="1" t="s">
         <v>409</v>
       </c>
@@ -9584,21 +9805,21 @@
         <v>407</v>
       </c>
     </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:29" x14ac:dyDescent="0.15">
       <c r="C65" s="1" t="s">
         <v>412</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="Z65" s="66" t="s">
+      <c r="AA65" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="AB65" s="1" t="s">
+      <c r="AC65" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:29" x14ac:dyDescent="0.15">
       <c r="C66" s="1" t="s">
         <v>413</v>
       </c>
@@ -9606,12 +9827,12 @@
         <v>411</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="Z67" s="66" t="s">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="AA67" s="66" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B68" s="1" t="s">
         <v>414</v>
       </c>
@@ -9622,18 +9843,18 @@
         <v>416</v>
       </c>
     </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:29" x14ac:dyDescent="0.15">
       <c r="C69" s="1" t="s">
         <v>417</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="Z69" s="66" t="s">
+      <c r="AA69" s="66" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:29" x14ac:dyDescent="0.15">
       <c r="C70" s="1" t="s">
         <v>419</v>
       </c>
@@ -9641,27 +9862,27 @@
         <v>420</v>
       </c>
     </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:29" x14ac:dyDescent="0.15">
       <c r="C71" s="1" t="s">
         <v>441</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="Z71" s="66" t="s">
+      <c r="AA71" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="AB71" s="1" t="s">
+      <c r="AC71" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="Z72" s="33"/>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="Z73" s="33"/>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="AA72" s="33"/>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="AA73" s="33"/>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B74" s="1" t="s">
         <v>421</v>
       </c>
@@ -9672,18 +9893,18 @@
         <v>423</v>
       </c>
     </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:29" x14ac:dyDescent="0.15">
       <c r="C75" s="1" t="s">
         <v>426</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="Z75" s="66" t="s">
+      <c r="AA75" s="66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:29" x14ac:dyDescent="0.15">
       <c r="C76" s="1" t="s">
         <v>427</v>
       </c>
@@ -9691,25 +9912,25 @@
         <v>425</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.15">
       <c r="C77" s="1" t="s">
         <v>428</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="Z77" s="66" t="s">
+      <c r="AA77" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="AA77" s="66"/>
       <c r="AB77" s="66"/>
-    </row>
-    <row r="78" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="Z78" s="66"/>
+      <c r="AC77" s="66"/>
+    </row>
+    <row r="78" spans="2:29" x14ac:dyDescent="0.15">
       <c r="AA78" s="66"/>
       <c r="AB78" s="66"/>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="AC78" s="66"/>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B79" s="1" t="s">
         <v>430</v>
       </c>
@@ -9719,39 +9940,39 @@
       <c r="D79" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="Z79" s="66" t="s">
+      <c r="AA79" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="AA79" s="66"/>
       <c r="AB79" s="66"/>
-    </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="AC79" s="66"/>
+    </row>
+    <row r="80" spans="2:29" x14ac:dyDescent="0.15">
       <c r="C80" s="1" t="s">
         <v>434</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="Z80" s="66"/>
       <c r="AA80" s="66"/>
       <c r="AB80" s="66"/>
-    </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="AC80" s="66"/>
+    </row>
+    <row r="81" spans="3:29" x14ac:dyDescent="0.15">
       <c r="C81" s="1" t="s">
         <v>438</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="Z81" s="66" t="s">
+      <c r="AA81" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="AA81" s="66"/>
-      <c r="AB81" s="66" t="s">
+      <c r="AB81" s="66"/>
+      <c r="AC81" s="66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.15">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.15">
       <c r="C82" s="1" t="s">
         <v>439</v>
       </c>
@@ -9759,21 +9980,21 @@
         <v>436</v>
       </c>
     </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.15">
+    <row r="83" spans="3:29" x14ac:dyDescent="0.15">
       <c r="C83" s="1" t="s">
         <v>440</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="Z83" s="33" t="s">
+      <c r="AA83" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="AB83" s="1" t="s">
+      <c r="AC83" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.15">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.15">
       <c r="C84" s="1" t="s">
         <v>443</v>
       </c>
@@ -9781,60 +10002,60 @@
         <v>444</v>
       </c>
     </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.15">
+    <row r="85" spans="3:29" x14ac:dyDescent="0.15">
       <c r="C85" s="1" t="s">
         <v>445</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="Z85" s="66" t="s">
+      <c r="AA85" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="AB85" s="1" t="s">
+      <c r="AC85" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.15">
-      <c r="Z87" s="66" t="s">
+    <row r="87" spans="3:29" x14ac:dyDescent="0.15">
+      <c r="AA87" s="66" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.15">
-      <c r="Z88" s="66"/>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.15">
-      <c r="Z89" s="66" t="s">
+    <row r="88" spans="3:29" x14ac:dyDescent="0.15">
+      <c r="AA88" s="66"/>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.15">
+      <c r="AA89" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="AB89" s="1" t="s">
+      <c r="AC89" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.15">
-      <c r="Z91" s="66" t="s">
+    <row r="91" spans="3:29" x14ac:dyDescent="0.15">
+      <c r="AA91" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="AB91" s="1" t="s">
+      <c r="AC91" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.15">
-      <c r="Z92" s="66"/>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.15">
-      <c r="Z93" s="66" t="s">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.15">
+      <c r="AA92" s="66"/>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.15">
+      <c r="AA93" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="AB93" s="1" t="s">
+      <c r="AC93" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.15">
-      <c r="Z95" s="1" t="s">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.15">
+      <c r="AA95" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AB95" s="1" t="s">
+      <c r="AC95" s="1" t="s">
         <v>86</v>
       </c>
     </row>
